--- a/list-accounts.xlsx
+++ b/list-accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F525E4B4-6A03-461E-81ED-AA3AE934A32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65A60BA-CF91-4AF8-9E43-0F668CD3E619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B5B878-345C-44CC-B53A-BF19BBD8F8A7}"/>
   </bookViews>
@@ -16,17 +16,25 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="453">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -1300,14 +1308,1782 @@
     <t>administrator</t>
   </si>
   <si>
-    <t>Z</t>
+    <t>Thanhdien123</t>
+  </si>
+  <si>
+    <t>administrator/admin@VHEC2023</t>
+  </si>
+  <si>
+    <t>export bill</t>
+  </si>
+  <si>
+    <t>                        },</t>
+  </si>
+  <si>
+    <t>                    }</t>
+  </si>
+  <si>
+    <t>                };</t>
+  </si>
+  <si>
+    <t>                ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t>                ];</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>async exportBill(){</t>
+  </si>
+  <si>
+    <t>                const headerStyle  = {</t>
+  </si>
+  <si>
+    <t>                    header: {</t>
+  </si>
+  <si>
+    <t>                        font: {</t>
+  </si>
+  <si>
+    <t>                            bold: true,</t>
+  </si>
+  <si>
+    <t>                            size: 12,</t>
+  </si>
+  <si>
+    <t>                        fill: {</t>
+  </si>
+  <si>
+    <t>                            type: "pattern",</t>
+  </si>
+  <si>
+    <t>                            patternType: 'solid',</t>
+  </si>
+  <si>
+    <t>                            fgColor: { rgb: 'F7DC6F' },</t>
+  </si>
+  <si>
+    <t>                        border: {</t>
+  </si>
+  <si>
+    <t>                            top: { style: 'thin', color: { auto: 1 } },</t>
+  </si>
+  <si>
+    <t>                            left: { style: 'thin', color: { auto: 1 } },</t>
+  </si>
+  <si>
+    <t>                            bottom: { style: 'thin', color: { auto: 1 } },</t>
+  </si>
+  <si>
+    <t>                            right: { style: 'thin', color: { auto: 1 } },</t>
+  </si>
+  <si>
+    <t>                        alignment: {</t>
+  </si>
+  <si>
+    <t>                            horizontal: 'center',</t>
+  </si>
+  <si>
+    <t>                            vertical: 'center',</t>
+  </si>
+  <si>
+    <t>                var dataExport = [</t>
+  </si>
+  <si>
+    <t>                    ['Tên','Tên dự án','Leader','Plan công số (MM)','','Công số (MH)','','','','','','','','','','','','','','','Tổng hợp theo dự án, theo tháng','','','Tổng hợp theo tháng (MM)','','','','','' ],</t>
+  </si>
+  <si>
+    <t>                    ['','','','BILLABLE','OT','BILLABLE','Thực tế','OT','BILLABLE','Thực tế','OT','BILLABLE','Thực tế','OT','BILLABLE','Thực tế','OT','BILLABLE','Thực tế','OT','BILLABLE','Thực tế','OT','BILLABLE','Thực tế','OT','Hiệu suất','Rank' ],</t>
+  </si>
+  <si>
+    <t>                const ws = XLSX.utils.aoa_to_sheet(dataExport);</t>
+  </si>
+  <si>
+    <t>                ws['!merges'] = [</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 0, c: 0 }, e: { r: 2, c: 0 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 0, c: 1 }, e: { r: 2, c: 1 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 0, c: 2 }, e: { r: 2, c: 2 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 0, c: 3 }, e: { r: 0, c: 4 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 1, c: 3 }, e: { r: 1, c: 4 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 0, c: 5 }, e: { r: 0, c: 19 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 1, c: 5 }, e: { r: 1, c: 7 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 1, c: 8 }, e: { r: 1, c: 10 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 1, c: 11 }, e: { r: 1, c: 13 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 1, c: 14 }, e: { r: 1, c: 16 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 1, c: 17 }, e: { r: 1, c: 19 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 0, c: 20 }, e: { r: 1, c: 22 } },</t>
+  </si>
+  <si>
+    <t>                    { s: { r: 0, c: 23 }, e: { r: 1, c: 27 } },</t>
+  </si>
+  <si>
+    <t>                var colWidths = [];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    colWidths.push({ wch: 15 }); </t>
+  </si>
+  <si>
+    <t>                ws['!cols'] = colWidths;</t>
+  </si>
+  <si>
+    <t>                const wb = XLSX.utils.book_new();</t>
+  </si>
+  <si>
+    <t>                XLSX.utils.book_append_sheet(wb, ws, 'Sheet1');</t>
+  </si>
+  <si>
+    <t>                var range = XLSX.utils.decode_range(ws['!ref']);</t>
+  </si>
+  <si>
+    <t>                var sheet = wb.Sheets[wb.SheetNames[0]];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.s.r = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.e.r = 2; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.s.c = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.e.c = 27; </t>
+  </si>
+  <si>
+    <t>                for (var C = range.s.c; C &lt;= range.e.c; ++C) {</t>
+  </si>
+  <si>
+    <t>                    for (var R = range.s.r; R &lt;= range.e.r; ++R){</t>
+  </si>
+  <si>
+    <t>                        const headerCell = XLSX.utils.encode_cell({ r: R, c: C });</t>
+  </si>
+  <si>
+    <t>                        sheet[headerCell].s = headerStyle.header;</t>
+  </si>
+  <si>
+    <t>                    },</t>
+  </si>
+  <si>
+    <t>                            wrapText: true,</t>
+  </si>
+  <si>
+    <t>                    body: {</t>
+  </si>
+  <si>
+    <t>                    ['Trần Lăng Khoa','IMS','Nguyễn Văn Mạnh','0.95','0','22','24','0','22','24','0','0','22','24','0','0','22','24','0','0','22','24','0','0.99','1.10','0.03','90.00','B'],</t>
+  </si>
+  <si>
+    <t>                    ['Nguyễn Nhựt Thanh','IMS','Nguyễn Văn Mạnh','0.95','0','22','24','0','22','24','0','0','22','24','0','0','22','24','0','0','22','24','0','0.99','1.10','0.03','90.00','B']</t>
+  </si>
+  <si>
+    <t>                for (let i = 0; i &lt; 3; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.s.r = 3; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.e.r = dataExport.length-1; </t>
+  </si>
+  <si>
+    <t>                        sheet[headerCell].s = headerStyle.body;</t>
+  </si>
+  <si>
+    <t>                var nameFile = "[Dự án]_Ngày export.xlxs"</t>
+  </si>
+  <si>
+    <t>                XLSX.writeFile(wb, 'eportbill.xlsx');</t>
+  </si>
+  <si>
+    <t>                var strMonth = [];</t>
+  </si>
+  <si>
+    <r>
+      <t>                for(var i=0; i&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.validWeeks.length; i++){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    strMonth.push("Tuần "+(i+1)+" ("+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.validWeeks[i]+")") </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    ['','','','Tháng '+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.currentMonth,'',strMonth[0],'','',strMonth[1],'','',strMonth[2],'','',strMonth[3],'','',strMonth[4],'','','','','','','','','',''],</t>
+    </r>
+  </si>
+  <si>
+    <t>link: googdrive web_python: https://drive.google.com/drive/folders/1fytA97fC4uPkb7t7FkHlSgylgCLvbFh7</t>
+  </si>
+  <si>
+    <t>scLbs6vA88DVDuzeZeDm</t>
+  </si>
+  <si>
+    <t>chưa tạo đc token_private</t>
+  </si>
+  <si>
+    <t>python -m pip install -U autopep8 --user</t>
+  </si>
+  <si>
+    <t>cài extension: python, kite, AREPL, better comment, python snippets, python indent, python docstring</t>
+  </si>
+  <si>
+    <t>export timesheet</t>
+  </si>
+  <si>
+    <t>                }));</t>
+  </si>
+  <si>
+    <t>                        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        }, </t>
+  </si>
+  <si>
+    <t>                        });</t>
+  </si>
+  <si>
+    <t>               </t>
+  </si>
+  <si>
+    <t>            },</t>
+  </si>
+  <si>
+    <t>                })</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                </t>
+  </si>
+  <si>
+    <t>                        }</t>
+  </si>
+  <si>
+    <t>exportCSV() {</t>
+  </si>
+  <si>
+    <t>                const ws = XLSX.utils.json_to_sheet(data);</t>
+  </si>
+  <si>
+    <t>                            fgColor: { rgb: 'D9E1F2' },</t>
+  </si>
+  <si>
+    <t>                let prevData = '';</t>
+  </si>
+  <si>
+    <t>                for (let i = 1; i &lt;= data.length; i++) {</t>
+  </si>
+  <si>
+    <t>                const currentData = ws[XLSX.utils.encode_cell({ r: i, c: 0 })].v;</t>
+  </si>
+  <si>
+    <t>                if (currentData === prevData) {</t>
+  </si>
+  <si>
+    <t>                    ws['!merges'] = ws['!merges'] || [];</t>
+  </si>
+  <si>
+    <t>                    ws['!merges'].push(</t>
+  </si>
+  <si>
+    <t>                            s: { r: i - 1, c: 0 },</t>
+  </si>
+  <si>
+    <t>                            e: { r: i, c: 0 },</t>
+  </si>
+  <si>
+    <t>                            s: { r: i - 1, c: 13 },</t>
+  </si>
+  <si>
+    <t>                            e: { r: i, c: 13 },</t>
+  </si>
+  <si>
+    <t>                } else {</t>
+  </si>
+  <si>
+    <t>                        prevData = currentData;</t>
+  </si>
+  <si>
+    <t>                const newHeader = ['Ngày', 'Nội dung', 'Layout', 'Spec', 'Api', 'Web', 'Utc', 'Ute', 'Integration', 'Deployment', 'Fixbug', 'Support','Others', 'Sum',];</t>
+  </si>
+  <si>
+    <t>                XLSX.utils.sheet_add_aoa(ws, [newHeader], {origin: 'A1'});  </t>
+  </si>
+  <si>
+    <t>                XLSX.utils.sheet_add_aoa(ws, [</t>
+  </si>
+  <si>
+    <t>                ],  { origin: -1 }, );</t>
+  </si>
+  <si>
+    <t>                for (let i = 0; i &lt; 14; i++) {</t>
+  </si>
+  <si>
+    <t>                let range = XLSX.utils.decode_range(ws['!ref']);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.e.r = 0; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.e.c = 13; </t>
+  </si>
+  <si>
+    <t>                for (let C = range.s.c; C &lt;= range.e.c; ++C) {</t>
+  </si>
+  <si>
+    <t>                    const headerCell = XLSX.utils.encode_cell({ r: range.s.r, c: C });</t>
+  </si>
+  <si>
+    <t>                    sheet[headerCell].s = headerStyle.header;</t>
+  </si>
+  <si>
+    <t>                XLSX.writeFile(wb, 'TimeSheetDaily.xlsx');</t>
+  </si>
+  <si>
+    <t>            async exportTimeSheet(){</t>
+  </si>
+  <si>
+    <t>                    ['Ngày', 'Nội dung', 'Layout', 'Spec', 'Api', 'Web', 'Utc', 'Ute', 'Integration', 'Deployment', 'Fixbug', 'Support','Others', 'Sum',],</t>
+  </si>
+  <si>
+    <t>                    var obj = [</t>
+  </si>
+  <si>
+    <t>                    dataExport.push(obj)</t>
+  </si>
+  <si>
+    <t>                var prevData = '';</t>
+  </si>
+  <si>
+    <t>                var startDate = 0;</t>
+  </si>
+  <si>
+    <t>                var nextDate = 0;</t>
+  </si>
+  <si>
+    <t>                ws['!merges'] = ws['!merges'] || [];</t>
+  </si>
+  <si>
+    <t>                for (var i = 1; i &lt; dataExport.length; i++) {</t>
+  </si>
+  <si>
+    <t>                    const currentData = ws[XLSX.utils.encode_cell({ r: i, c: 0 })].v;</t>
+  </si>
+  <si>
+    <t>                    if (currentData === prevData) {</t>
+  </si>
+  <si>
+    <t>                        nextDate = i;</t>
+  </si>
+  <si>
+    <t>                    } else {</t>
+  </si>
+  <si>
+    <t>                        if(nextDate &gt; startDate) {</t>
+  </si>
+  <si>
+    <t>                            ws['!merges'].push(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            { s: { r: startDate, c: 0 },e: { r: nextDate, c: 0 } }, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            { s: { r: startDate, c: 13 },e: { r: nextDate, c: 13 } }); </t>
+  </si>
+  <si>
+    <t>                        startDate = i;</t>
+  </si>
+  <si>
+    <t>                if(nextDate &gt; startDate) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    { s: { r: startDate, c: 0 },e: { r: nextDate, c: 0 } }, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    { s: { r: startDate, c: 13 },e: { r: nextDate, c: 13 } }); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    sheet[headerCell].s = FormatExcel.Header; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.s.r = 1; </t>
+  </si>
+  <si>
+    <t>                        if(C == 1) sheet[headerCell].s = FormatExcel.ElementContent1;</t>
+  </si>
+  <si>
+    <t>                        else sheet[headerCell].s = FormatExcel.Body;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.s.r = dataExport.length; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                range.e.r = dataExport.length; </t>
+  </si>
+  <si>
+    <t>                    sheet[headerCell].s = FormatExcel.Header;</t>
+  </si>
+  <si>
+    <t>                for (let i = 0; i &lt; 13; i++) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if(i==0) colWidths.push({ wch: 13 }); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    else if(i==1) colWidths.push({ wch: 30 }); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    else colWidths.push({ wch: 12 }); </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                const data = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.listTimeSheet.map((</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) =&gt; ({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    date: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.date,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    taskContent: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.taskContent,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    layout: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.layout,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    spec: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.spec,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    api: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.api,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    web: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.web,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    utc: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.utc,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    ute: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.ute,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    integration: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.integration,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    deployment: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.deployment,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    fixbug: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.fixbug,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    support: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.support,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    others: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.others,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    sum: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.sum,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                    ["","Tổng",</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.layoutTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.specTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.apiTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.webTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.utcTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.uteTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.integrationTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.deploymentTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.fixbugTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.supportTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.listTimeSheetTotal.othersTotal, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.listTimeSheetTotal.sumTotal,],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.listTimeSheet.map(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.date,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.taskContent,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.layout==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.layout,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.spec==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.spec,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.api==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.api,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.web==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.web,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.utc==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.utc,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.ute==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.ute,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.integration==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.integration,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.deployment==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.deployment,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.fixbug==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.fixbug,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.support==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.support,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.others==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.others,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.sum==null?'':</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.sum,]</t>
+    </r>
+  </si>
+  <si>
+    <t>tài liệu phân quyền của Điền: \\10.32.9.100\004_Application_Dept\1. Project\2022\99. IMS\2023 new\01 Documents\others\PermissionNew.xlsx</t>
+  </si>
+  <si>
+    <t>fix cảnh báo các màn hình</t>
+  </si>
+  <si>
+    <t>fix xem thông tin nghỉ phép cá nhân theo ngày bị lỗi</t>
+  </si>
+  <si>
+    <t>fix format ngày task bị lỗi</t>
+  </si>
+  <si>
+    <t>format css màn hình "thông tin nghỉ phép cá nhân"</t>
+  </si>
+  <si>
+    <t>fix màn "danh sách duyệt nghỉ phép" hoạt động sai chức năng</t>
+  </si>
+  <si>
+    <t>fix perrmission role lead màn leaveoff</t>
+  </si>
+  <si>
+    <t>format giao diện đồng bộ</t>
+  </si>
+  <si>
+    <t>fix, tối ưu màn Ots  không hoạt động đúng</t>
+  </si>
+  <si>
+    <t>web ims: http://10.32.4.170/login</t>
+  </si>
+  <si>
+    <t>tài khoản: admin@vhec.vn/root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link db: http://10.32.3.160:5050/browser/ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,6 +3168,26 @@
       <color rgb="FF6272A4"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1502,7 +3298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1635,6 +3431,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1651,627 +3455,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>172234</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>152926</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C52A3B-4857-4A40-91A6-DB2D793C2E64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2886075" y="16535400"/>
-          <a:ext cx="5620534" cy="3772426"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>363403</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>181000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D56320-DA4F-4DE3-BC21-D39ED27E2F25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="6400800"/>
-          <a:ext cx="10412278" cy="181000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>344436</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142895</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364A76E7-8B02-457F-B97D-8A83F5FA598E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="6800850"/>
-          <a:ext cx="11002911" cy="142895"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>49204</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161948</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FA9720-E78C-49A2-A244-505F8D351272}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="7200900"/>
-          <a:ext cx="11317279" cy="161948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>249257</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9554</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0196AF00-A906-4F71-8111-7C70AFCFE46F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="7600950"/>
-          <a:ext cx="11517332" cy="209579"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>525436</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85765</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71133E7E-9638-4A08-950C-47F10ACB06EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="8001000"/>
-          <a:ext cx="11183911" cy="285790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>534792</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>190527</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79744AFB-D5F4-4838-A1F3-565B27E1D20C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="8401050"/>
-          <a:ext cx="9974067" cy="190527"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>229949</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>161948</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB96E16-1C1F-4DC9-A656-5A3534E83DE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="8801100"/>
-          <a:ext cx="9669224" cy="161948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>544318</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152421</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638DB640-D031-44E1-9607-3429500B2D3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="9201150"/>
-          <a:ext cx="9983593" cy="152421"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>334909</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133369</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5420841-96DB-4122-8442-E98A8AA6984B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="9601200"/>
-          <a:ext cx="10993384" cy="133369"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>401508</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>171474</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10F370D-C57D-48C0-8BE3-1D658AAA94CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="10001250"/>
-          <a:ext cx="10450383" cy="171474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>573067</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>161948</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3F3765-BC00-452C-9D75-B73DB0D87620}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="10401300"/>
-          <a:ext cx="11231542" cy="161948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>239561</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161948</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0542B2-36C6-4865-9D5C-0E117E49D0F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="10801350"/>
-          <a:ext cx="10288436" cy="161948"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>96666</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>171474</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08444DB6-9A9D-433E-8E36-FD13452E0E2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10163175" y="11201400"/>
-          <a:ext cx="10145541" cy="171474"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2571,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FE1BC3-5C5C-4667-8C34-0F9BABA09FD6}">
-  <dimension ref="A1:U232"/>
+  <dimension ref="A1:X539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2587,7 +3770,7 @@
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +3806,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2646,6 +3829,9 @@
       <c r="J2" s="8">
         <v>1</v>
       </c>
+      <c r="L2" t="s">
+        <v>337</v>
+      </c>
       <c r="P2">
         <v>2</v>
       </c>
@@ -2661,8 +3847,11 @@
       <c r="U2" s="16" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2707,7 +3896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2750,7 +3939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2792,7 +3981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2832,7 +4021,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2861,11 +4050,14 @@
       <c r="J7" s="13">
         <v>15</v>
       </c>
+      <c r="L7">
+        <v>183461</v>
+      </c>
       <c r="P7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2899,7 +4091,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2933,7 +4125,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2959,7 +4151,7 @@
       </c>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2986,11 +4178,14 @@
       <c r="J11" s="2">
         <v>42</v>
       </c>
+      <c r="K11" s="57" t="s">
+        <v>338</v>
+      </c>
       <c r="P11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3024,7 +4219,7 @@
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3053,6 +4248,9 @@
       <c r="J13" s="6">
         <v>109</v>
       </c>
+      <c r="L13" t="s">
+        <v>450</v>
+      </c>
       <c r="P13">
         <v>3</v>
       </c>
@@ -3060,7 +4258,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3087,6 +4285,9 @@
       <c r="J14" s="10">
         <v>30</v>
       </c>
+      <c r="L14" t="s">
+        <v>452</v>
+      </c>
       <c r="P14">
         <v>3</v>
       </c>
@@ -3096,7 +4297,7 @@
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3125,6 +4326,9 @@
       <c r="J15" s="10">
         <v>44</v>
       </c>
+      <c r="M15" t="s">
+        <v>451</v>
+      </c>
       <c r="P15">
         <v>5</v>
       </c>
@@ -3134,7 +4338,7 @@
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3621,6 +4825,9 @@
         <v>72</v>
       </c>
       <c r="J31" s="52"/>
+      <c r="R31" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3650,7 +4857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3678,7 +4885,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3705,8 +4912,11 @@
       <c r="J34" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3733,8 +4943,11 @@
       <c r="J35" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3762,7 +4975,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3790,7 +5003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3817,8 +5030,11 @@
       <c r="J38" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3845,8 +5061,9 @@
       <c r="J39" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N39" s="54"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3873,8 +5090,9 @@
       <c r="J40" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N40" s="54"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3901,8 +5119,9 @@
       <c r="J41" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N41" s="54"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3929,8 +5148,9 @@
       <c r="J42" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N42" s="54"/>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3957,8 +5177,12 @@
       <c r="J43" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N43" s="54"/>
+      <c r="R43" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3985,11 +5209,12 @@
       <c r="J44" s="2">
         <v>91</v>
       </c>
-      <c r="P44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N44" s="54"/>
+      <c r="R44" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4016,8 +5241,12 @@
       <c r="J45" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N45" s="54"/>
+      <c r="R45" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4044,8 +5273,12 @@
       <c r="J46" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N46" s="54"/>
+      <c r="R46" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4072,8 +5305,12 @@
       <c r="J47" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N47" s="54"/>
+      <c r="R47" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4100,8 +5337,12 @@
       <c r="J48" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N48" s="54"/>
+      <c r="R48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4128,8 +5369,12 @@
       <c r="J49" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N49" s="54"/>
+      <c r="R49" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4156,8 +5401,12 @@
       <c r="J50" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N50" s="54"/>
+      <c r="R50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4184,8 +5433,9 @@
       <c r="J51" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N51" s="54"/>
+    </row>
+    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4212,8 +5462,9 @@
       <c r="J52" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N52" s="54"/>
+    </row>
+    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4238,8 +5489,9 @@
         <v>94</v>
       </c>
       <c r="J53" s="52"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N53" s="54"/>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4266,8 +5518,9 @@
       <c r="J54" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N54" s="54"/>
+    </row>
+    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4294,8 +5547,12 @@
       <c r="J55" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>259</v>
+      </c>
+      <c r="N55" s="54"/>
+    </row>
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -4325,8 +5582,9 @@
       <c r="K56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N56" s="54"/>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>56</v>
       </c>
@@ -4349,8 +5607,9 @@
         <v>103</v>
       </c>
       <c r="J57" s="52"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N57" s="54"/>
+    </row>
+    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>57</v>
       </c>
@@ -4373,8 +5632,9 @@
         <v>104</v>
       </c>
       <c r="J58" s="52"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N58" s="54"/>
+    </row>
+    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>58</v>
       </c>
@@ -4399,8 +5659,9 @@
       <c r="J59" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N59" s="54"/>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>59</v>
       </c>
@@ -4425,8 +5686,9 @@
       <c r="J60" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N60" s="54"/>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>60</v>
       </c>
@@ -4451,8 +5713,9 @@
       <c r="J61" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N61" s="54"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>61</v>
       </c>
@@ -4477,49 +5740,142 @@
       <c r="J62" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N62" s="54"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N63" s="54"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N64" s="54"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="54"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="54"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N67" s="54"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>137</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N68" s="54"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N69" s="54"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="54"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="54"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N72" s="54"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N73" s="54"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N74" s="54"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N75" s="54"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N76" s="54"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N77" s="54"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C78" s="18" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="N78" s="54"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="54"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C80" s="18" t="s">
         <v>162</v>
       </c>
+      <c r="N80" s="54"/>
+    </row>
+    <row r="81" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="54"/>
+    </row>
+    <row r="82" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N82" s="54"/>
+    </row>
+    <row r="83" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="54"/>
+    </row>
+    <row r="84" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N84" s="54"/>
+    </row>
+    <row r="85" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="54"/>
+    </row>
+    <row r="86" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N86" s="54"/>
+    </row>
+    <row r="87" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="54"/>
+    </row>
+    <row r="88" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="54"/>
+    </row>
+    <row r="89" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="54"/>
+    </row>
+    <row r="90" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="54"/>
+    </row>
+    <row r="91" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="54"/>
+    </row>
+    <row r="92" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N92" s="54"/>
+    </row>
+    <row r="93" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N93" s="54"/>
+    </row>
+    <row r="94" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N94" s="54"/>
+    </row>
+    <row r="95" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N95" s="54"/>
+    </row>
+    <row r="96" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N96" s="54"/>
+    </row>
+    <row r="97" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N97" s="54"/>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N98" s="54"/>
     </row>
     <row r="115" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="34" t="s">
@@ -5017,42 +6373,3937 @@
         <v>240</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A225" s="37" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A226" s="37" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A227" s="37" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A228" s="39"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A229" s="37" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A230" s="37" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A231" s="37" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A232" s="37" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A238" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B238" s="55"/>
+      <c r="C238" s="55"/>
+      <c r="D238" s="55"/>
+      <c r="E238" s="55"/>
+      <c r="F238" s="55"/>
+      <c r="G238" s="55"/>
+      <c r="H238" s="55"/>
+      <c r="I238" s="55"/>
+      <c r="J238" s="55"/>
+      <c r="K238" s="55"/>
+      <c r="L238" s="55"/>
+      <c r="M238" s="55"/>
+      <c r="N238" s="55"/>
+      <c r="O238" s="55"/>
+      <c r="P238" s="55"/>
+      <c r="Q238" s="55"/>
+      <c r="R238" s="55"/>
+      <c r="S238" s="55"/>
+      <c r="T238" s="55"/>
+      <c r="U238" s="55"/>
+      <c r="V238" s="55"/>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A239" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B239" s="55"/>
+      <c r="C239" s="55"/>
+      <c r="D239" s="55"/>
+      <c r="E239" s="55"/>
+      <c r="F239" s="55"/>
+      <c r="G239" s="55"/>
+      <c r="H239" s="55"/>
+      <c r="I239" s="55"/>
+      <c r="J239" s="55"/>
+      <c r="K239" s="55"/>
+      <c r="L239" s="55"/>
+      <c r="M239" s="55"/>
+      <c r="N239" s="55"/>
+      <c r="O239" s="55"/>
+      <c r="P239" s="55"/>
+      <c r="Q239" s="55"/>
+      <c r="R239" s="55"/>
+      <c r="S239" s="55"/>
+      <c r="T239" s="55"/>
+      <c r="U239" s="55"/>
+      <c r="V239" s="55"/>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A240" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="B240" s="55"/>
+      <c r="C240" s="55"/>
+      <c r="D240" s="55"/>
+      <c r="E240" s="55"/>
+      <c r="F240" s="55"/>
+      <c r="G240" s="55"/>
+      <c r="H240" s="55"/>
+      <c r="I240" s="55"/>
+      <c r="J240" s="55"/>
+      <c r="K240" s="55"/>
+      <c r="L240" s="55"/>
+      <c r="M240" s="55"/>
+      <c r="N240" s="55"/>
+      <c r="O240" s="55"/>
+      <c r="P240" s="55"/>
+      <c r="Q240" s="55"/>
+      <c r="R240" s="55"/>
+      <c r="S240" s="55"/>
+      <c r="T240" s="55"/>
+      <c r="U240" s="55"/>
+      <c r="V240" s="55"/>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A241" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B241" s="55"/>
+      <c r="C241" s="55"/>
+      <c r="D241" s="55"/>
+      <c r="E241" s="55"/>
+      <c r="F241" s="55"/>
+      <c r="G241" s="55"/>
+      <c r="H241" s="55"/>
+      <c r="I241" s="55"/>
+      <c r="J241" s="55"/>
+      <c r="K241" s="55"/>
+      <c r="L241" s="55"/>
+      <c r="M241" s="55"/>
+      <c r="N241" s="55"/>
+      <c r="O241" s="55"/>
+      <c r="P241" s="55"/>
+      <c r="Q241" s="55"/>
+      <c r="R241" s="55"/>
+      <c r="S241" s="55"/>
+      <c r="T241" s="55"/>
+      <c r="U241" s="55"/>
+      <c r="V241" s="55"/>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A242" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B242" s="55"/>
+      <c r="C242" s="55"/>
+      <c r="D242" s="55"/>
+      <c r="E242" s="55"/>
+      <c r="F242" s="55"/>
+      <c r="G242" s="55"/>
+      <c r="H242" s="55"/>
+      <c r="I242" s="55"/>
+      <c r="J242" s="55"/>
+      <c r="K242" s="55"/>
+      <c r="L242" s="55"/>
+      <c r="M242" s="55"/>
+      <c r="N242" s="55"/>
+      <c r="O242" s="55"/>
+      <c r="P242" s="55"/>
+      <c r="Q242" s="55"/>
+      <c r="R242" s="55"/>
+      <c r="S242" s="55"/>
+      <c r="T242" s="55"/>
+      <c r="U242" s="55"/>
+      <c r="V242" s="55"/>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A243" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="B243" s="55"/>
+      <c r="C243" s="55"/>
+      <c r="D243" s="55"/>
+      <c r="E243" s="55"/>
+      <c r="F243" s="55"/>
+      <c r="G243" s="55"/>
+      <c r="H243" s="55"/>
+      <c r="I243" s="55"/>
+      <c r="J243" s="55"/>
+      <c r="K243" s="55"/>
+      <c r="L243" s="55"/>
+      <c r="M243" s="55"/>
+      <c r="N243" s="55"/>
+      <c r="O243" s="55"/>
+      <c r="P243" s="55"/>
+      <c r="Q243" s="55"/>
+      <c r="R243" s="55"/>
+      <c r="S243" s="55"/>
+      <c r="T243" s="55"/>
+      <c r="U243" s="55"/>
+      <c r="V243" s="55"/>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A244" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B244" s="55"/>
+      <c r="C244" s="55"/>
+      <c r="D244" s="55"/>
+      <c r="E244" s="55"/>
+      <c r="F244" s="55"/>
+      <c r="G244" s="55"/>
+      <c r="H244" s="55"/>
+      <c r="I244" s="55"/>
+      <c r="J244" s="55"/>
+      <c r="K244" s="55"/>
+      <c r="L244" s="55"/>
+      <c r="M244" s="55"/>
+      <c r="N244" s="55"/>
+      <c r="O244" s="55"/>
+      <c r="P244" s="55"/>
+      <c r="Q244" s="55"/>
+      <c r="R244" s="55"/>
+      <c r="S244" s="55"/>
+      <c r="T244" s="55"/>
+      <c r="U244" s="55"/>
+      <c r="V244" s="55"/>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A245" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="B245" s="55"/>
+      <c r="C245" s="55"/>
+      <c r="D245" s="55"/>
+      <c r="E245" s="55"/>
+      <c r="F245" s="55"/>
+      <c r="G245" s="55"/>
+      <c r="H245" s="55"/>
+      <c r="I245" s="55"/>
+      <c r="J245" s="55"/>
+      <c r="K245" s="55"/>
+      <c r="L245" s="55"/>
+      <c r="M245" s="55"/>
+      <c r="N245" s="55"/>
+      <c r="O245" s="55"/>
+      <c r="P245" s="55"/>
+      <c r="Q245" s="55"/>
+      <c r="R245" s="55"/>
+      <c r="S245" s="55"/>
+      <c r="T245" s="55"/>
+      <c r="U245" s="55"/>
+      <c r="V245" s="55"/>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A246" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B246" s="55"/>
+      <c r="C246" s="55"/>
+      <c r="D246" s="55"/>
+      <c r="E246" s="55"/>
+      <c r="F246" s="55"/>
+      <c r="G246" s="55"/>
+      <c r="H246" s="55"/>
+      <c r="I246" s="55"/>
+      <c r="J246" s="55"/>
+      <c r="K246" s="55"/>
+      <c r="L246" s="55"/>
+      <c r="M246" s="55"/>
+      <c r="N246" s="55"/>
+      <c r="O246" s="55"/>
+      <c r="P246" s="55"/>
+      <c r="Q246" s="55"/>
+      <c r="R246" s="55"/>
+      <c r="S246" s="55"/>
+      <c r="T246" s="55"/>
+      <c r="U246" s="55"/>
+      <c r="V246" s="55"/>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A247" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B247" s="55"/>
+      <c r="C247" s="55"/>
+      <c r="D247" s="55"/>
+      <c r="E247" s="55"/>
+      <c r="F247" s="55"/>
+      <c r="G247" s="55"/>
+      <c r="H247" s="55"/>
+      <c r="I247" s="55"/>
+      <c r="J247" s="55"/>
+      <c r="K247" s="55"/>
+      <c r="L247" s="55"/>
+      <c r="M247" s="55"/>
+      <c r="N247" s="55"/>
+      <c r="O247" s="55"/>
+      <c r="P247" s="55"/>
+      <c r="Q247" s="55"/>
+      <c r="R247" s="55"/>
+      <c r="S247" s="55"/>
+      <c r="T247" s="55"/>
+      <c r="U247" s="55"/>
+      <c r="V247" s="55"/>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A248" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B248" s="55"/>
+      <c r="C248" s="55"/>
+      <c r="D248" s="55"/>
+      <c r="E248" s="55"/>
+      <c r="F248" s="55"/>
+      <c r="G248" s="55"/>
+      <c r="H248" s="55"/>
+      <c r="I248" s="55"/>
+      <c r="J248" s="55"/>
+      <c r="K248" s="55"/>
+      <c r="L248" s="55"/>
+      <c r="M248" s="55"/>
+      <c r="N248" s="55"/>
+      <c r="O248" s="55"/>
+      <c r="P248" s="55"/>
+      <c r="Q248" s="55"/>
+      <c r="R248" s="55"/>
+      <c r="S248" s="55"/>
+      <c r="T248" s="55"/>
+      <c r="U248" s="55"/>
+      <c r="V248" s="55"/>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A249" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B249" s="55"/>
+      <c r="C249" s="55"/>
+      <c r="D249" s="55"/>
+      <c r="E249" s="55"/>
+      <c r="F249" s="55"/>
+      <c r="G249" s="55"/>
+      <c r="H249" s="55"/>
+      <c r="I249" s="55"/>
+      <c r="J249" s="55"/>
+      <c r="K249" s="55"/>
+      <c r="L249" s="55"/>
+      <c r="M249" s="55"/>
+      <c r="N249" s="55"/>
+      <c r="O249" s="55"/>
+      <c r="P249" s="55"/>
+      <c r="Q249" s="55"/>
+      <c r="R249" s="55"/>
+      <c r="S249" s="55"/>
+      <c r="T249" s="55"/>
+      <c r="U249" s="55"/>
+      <c r="V249" s="55"/>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A250" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B250" s="55"/>
+      <c r="C250" s="55"/>
+      <c r="D250" s="55"/>
+      <c r="E250" s="55"/>
+      <c r="F250" s="55"/>
+      <c r="G250" s="55"/>
+      <c r="H250" s="55"/>
+      <c r="I250" s="55"/>
+      <c r="J250" s="55"/>
+      <c r="K250" s="55"/>
+      <c r="L250" s="55"/>
+      <c r="M250" s="55"/>
+      <c r="N250" s="55"/>
+      <c r="O250" s="55"/>
+      <c r="P250" s="55"/>
+      <c r="Q250" s="55"/>
+      <c r="R250" s="55"/>
+      <c r="S250" s="55"/>
+      <c r="T250" s="55"/>
+      <c r="U250" s="55"/>
+      <c r="V250" s="55"/>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A251" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B251" s="55"/>
+      <c r="C251" s="55"/>
+      <c r="D251" s="55"/>
+      <c r="E251" s="55"/>
+      <c r="F251" s="55"/>
+      <c r="G251" s="55"/>
+      <c r="H251" s="55"/>
+      <c r="I251" s="55"/>
+      <c r="J251" s="55"/>
+      <c r="K251" s="55"/>
+      <c r="L251" s="55"/>
+      <c r="M251" s="55"/>
+      <c r="N251" s="55"/>
+      <c r="O251" s="55"/>
+      <c r="P251" s="55"/>
+      <c r="Q251" s="55"/>
+      <c r="R251" s="55"/>
+      <c r="S251" s="55"/>
+      <c r="T251" s="55"/>
+      <c r="U251" s="55"/>
+      <c r="V251" s="55"/>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A252" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B252" s="55"/>
+      <c r="C252" s="55"/>
+      <c r="D252" s="55"/>
+      <c r="E252" s="55"/>
+      <c r="F252" s="55"/>
+      <c r="G252" s="55"/>
+      <c r="H252" s="55"/>
+      <c r="I252" s="55"/>
+      <c r="J252" s="55"/>
+      <c r="K252" s="55"/>
+      <c r="L252" s="55"/>
+      <c r="M252" s="55"/>
+      <c r="N252" s="55"/>
+      <c r="O252" s="55"/>
+      <c r="P252" s="55"/>
+      <c r="Q252" s="55"/>
+      <c r="R252" s="55"/>
+      <c r="S252" s="55"/>
+      <c r="T252" s="55"/>
+      <c r="U252" s="55"/>
+      <c r="V252" s="55"/>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A253" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B253" s="55"/>
+      <c r="C253" s="55"/>
+      <c r="D253" s="55"/>
+      <c r="E253" s="55"/>
+      <c r="F253" s="55"/>
+      <c r="G253" s="55"/>
+      <c r="H253" s="55"/>
+      <c r="I253" s="55"/>
+      <c r="J253" s="55"/>
+      <c r="K253" s="55"/>
+      <c r="L253" s="55"/>
+      <c r="M253" s="55"/>
+      <c r="N253" s="55"/>
+      <c r="O253" s="55"/>
+      <c r="P253" s="55"/>
+      <c r="Q253" s="55"/>
+      <c r="R253" s="55"/>
+      <c r="S253" s="55"/>
+      <c r="T253" s="55"/>
+      <c r="U253" s="55"/>
+      <c r="V253" s="55"/>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A254" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B254" s="55"/>
+      <c r="C254" s="55"/>
+      <c r="D254" s="55"/>
+      <c r="E254" s="55"/>
+      <c r="F254" s="55"/>
+      <c r="G254" s="55"/>
+      <c r="H254" s="55"/>
+      <c r="I254" s="55"/>
+      <c r="J254" s="55"/>
+      <c r="K254" s="55"/>
+      <c r="L254" s="55"/>
+      <c r="M254" s="55"/>
+      <c r="N254" s="55"/>
+      <c r="O254" s="55"/>
+      <c r="P254" s="55"/>
+      <c r="Q254" s="55"/>
+      <c r="R254" s="55"/>
+      <c r="S254" s="55"/>
+      <c r="T254" s="55"/>
+      <c r="U254" s="55"/>
+      <c r="V254" s="55"/>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A255" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255" s="55"/>
+      <c r="C255" s="55"/>
+      <c r="D255" s="55"/>
+      <c r="E255" s="55"/>
+      <c r="F255" s="55"/>
+      <c r="G255" s="55"/>
+      <c r="H255" s="55"/>
+      <c r="I255" s="55"/>
+      <c r="J255" s="55"/>
+      <c r="K255" s="55"/>
+      <c r="L255" s="55"/>
+      <c r="M255" s="55"/>
+      <c r="N255" s="55"/>
+      <c r="O255" s="55"/>
+      <c r="P255" s="55"/>
+      <c r="Q255" s="55"/>
+      <c r="R255" s="55"/>
+      <c r="S255" s="55"/>
+      <c r="T255" s="55"/>
+      <c r="U255" s="55"/>
+      <c r="V255" s="55"/>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A256" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B256" s="55"/>
+      <c r="C256" s="55"/>
+      <c r="D256" s="55"/>
+      <c r="E256" s="55"/>
+      <c r="F256" s="55"/>
+      <c r="G256" s="55"/>
+      <c r="H256" s="55"/>
+      <c r="I256" s="55"/>
+      <c r="J256" s="55"/>
+      <c r="K256" s="55"/>
+      <c r="L256" s="55"/>
+      <c r="M256" s="55"/>
+      <c r="N256" s="55"/>
+      <c r="O256" s="55"/>
+      <c r="P256" s="55"/>
+      <c r="Q256" s="55"/>
+      <c r="R256" s="55"/>
+      <c r="S256" s="55"/>
+      <c r="T256" s="55"/>
+      <c r="U256" s="55"/>
+      <c r="V256" s="55"/>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A257" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B257" s="55"/>
+      <c r="C257" s="55"/>
+      <c r="D257" s="55"/>
+      <c r="E257" s="55"/>
+      <c r="F257" s="55"/>
+      <c r="G257" s="55"/>
+      <c r="H257" s="55"/>
+      <c r="I257" s="55"/>
+      <c r="J257" s="55"/>
+      <c r="K257" s="55"/>
+      <c r="L257" s="55"/>
+      <c r="M257" s="55"/>
+      <c r="N257" s="55"/>
+      <c r="O257" s="55"/>
+      <c r="P257" s="55"/>
+      <c r="Q257" s="55"/>
+      <c r="R257" s="55"/>
+      <c r="S257" s="55"/>
+      <c r="T257" s="55"/>
+      <c r="U257" s="55"/>
+      <c r="V257" s="55"/>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A258" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B258" s="55"/>
+      <c r="C258" s="55"/>
+      <c r="D258" s="55"/>
+      <c r="E258" s="55"/>
+      <c r="F258" s="55"/>
+      <c r="G258" s="55"/>
+      <c r="H258" s="55"/>
+      <c r="I258" s="55"/>
+      <c r="J258" s="55"/>
+      <c r="K258" s="55"/>
+      <c r="L258" s="55"/>
+      <c r="M258" s="55"/>
+      <c r="N258" s="55"/>
+      <c r="O258" s="55"/>
+      <c r="P258" s="55"/>
+      <c r="Q258" s="55"/>
+      <c r="R258" s="55"/>
+      <c r="S258" s="55"/>
+      <c r="T258" s="55"/>
+      <c r="U258" s="55"/>
+      <c r="V258" s="55"/>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A259" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B259" s="55"/>
+      <c r="C259" s="55"/>
+      <c r="D259" s="55"/>
+      <c r="E259" s="55"/>
+      <c r="F259" s="55"/>
+      <c r="G259" s="55"/>
+      <c r="H259" s="55"/>
+      <c r="I259" s="55"/>
+      <c r="J259" s="55"/>
+      <c r="K259" s="55"/>
+      <c r="L259" s="55"/>
+      <c r="M259" s="55"/>
+      <c r="N259" s="55"/>
+      <c r="O259" s="55"/>
+      <c r="P259" s="55"/>
+      <c r="Q259" s="55"/>
+      <c r="R259" s="55"/>
+      <c r="S259" s="55"/>
+      <c r="T259" s="55"/>
+      <c r="U259" s="55"/>
+      <c r="V259" s="55"/>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A260" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" s="55"/>
+      <c r="C260" s="55"/>
+      <c r="D260" s="55"/>
+      <c r="E260" s="55"/>
+      <c r="F260" s="55"/>
+      <c r="G260" s="55"/>
+      <c r="H260" s="55"/>
+      <c r="I260" s="55"/>
+      <c r="J260" s="55"/>
+      <c r="K260" s="55"/>
+      <c r="L260" s="55"/>
+      <c r="M260" s="55"/>
+      <c r="N260" s="55"/>
+      <c r="O260" s="55"/>
+      <c r="P260" s="55"/>
+      <c r="Q260" s="55"/>
+      <c r="R260" s="55"/>
+      <c r="S260" s="55"/>
+      <c r="T260" s="55"/>
+      <c r="U260" s="55"/>
+      <c r="V260" s="55"/>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A261" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="B261" s="55"/>
+      <c r="C261" s="55"/>
+      <c r="D261" s="55"/>
+      <c r="E261" s="55"/>
+      <c r="F261" s="55"/>
+      <c r="G261" s="55"/>
+      <c r="H261" s="55"/>
+      <c r="I261" s="55"/>
+      <c r="J261" s="55"/>
+      <c r="K261" s="55"/>
+      <c r="L261" s="55"/>
+      <c r="M261" s="55"/>
+      <c r="N261" s="55"/>
+      <c r="O261" s="55"/>
+      <c r="P261" s="55"/>
+      <c r="Q261" s="55"/>
+      <c r="R261" s="55"/>
+      <c r="S261" s="55"/>
+      <c r="T261" s="55"/>
+      <c r="U261" s="55"/>
+      <c r="V261" s="55"/>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A262" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B262" s="55"/>
+      <c r="C262" s="55"/>
+      <c r="D262" s="55"/>
+      <c r="E262" s="55"/>
+      <c r="F262" s="55"/>
+      <c r="G262" s="55"/>
+      <c r="H262" s="55"/>
+      <c r="I262" s="55"/>
+      <c r="J262" s="55"/>
+      <c r="K262" s="55"/>
+      <c r="L262" s="55"/>
+      <c r="M262" s="55"/>
+      <c r="N262" s="55"/>
+      <c r="O262" s="55"/>
+      <c r="P262" s="55"/>
+      <c r="Q262" s="55"/>
+      <c r="R262" s="55"/>
+      <c r="S262" s="55"/>
+      <c r="T262" s="55"/>
+      <c r="U262" s="55"/>
+      <c r="V262" s="55"/>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A263" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="B263" s="55"/>
+      <c r="C263" s="55"/>
+      <c r="D263" s="55"/>
+      <c r="E263" s="55"/>
+      <c r="F263" s="55"/>
+      <c r="G263" s="55"/>
+      <c r="H263" s="55"/>
+      <c r="I263" s="55"/>
+      <c r="J263" s="55"/>
+      <c r="K263" s="55"/>
+      <c r="L263" s="55"/>
+      <c r="M263" s="55"/>
+      <c r="N263" s="55"/>
+      <c r="O263" s="55"/>
+      <c r="P263" s="55"/>
+      <c r="Q263" s="55"/>
+      <c r="R263" s="55"/>
+      <c r="S263" s="55"/>
+      <c r="T263" s="55"/>
+      <c r="U263" s="55"/>
+      <c r="V263" s="55"/>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A264" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B264" s="55"/>
+      <c r="C264" s="55"/>
+      <c r="D264" s="55"/>
+      <c r="E264" s="55"/>
+      <c r="F264" s="55"/>
+      <c r="G264" s="55"/>
+      <c r="H264" s="55"/>
+      <c r="I264" s="55"/>
+      <c r="J264" s="55"/>
+      <c r="K264" s="55"/>
+      <c r="L264" s="55"/>
+      <c r="M264" s="55"/>
+      <c r="N264" s="55"/>
+      <c r="O264" s="55"/>
+      <c r="P264" s="55"/>
+      <c r="Q264" s="55"/>
+      <c r="R264" s="55"/>
+      <c r="S264" s="55"/>
+      <c r="T264" s="55"/>
+      <c r="U264" s="55"/>
+      <c r="V264" s="55"/>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A265" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B265" s="55"/>
+      <c r="C265" s="55"/>
+      <c r="D265" s="55"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="55"/>
+      <c r="H265" s="55"/>
+      <c r="I265" s="55"/>
+      <c r="J265" s="55"/>
+      <c r="K265" s="55"/>
+      <c r="L265" s="55"/>
+      <c r="M265" s="55"/>
+      <c r="N265" s="55"/>
+      <c r="O265" s="55"/>
+      <c r="P265" s="55"/>
+      <c r="Q265" s="55"/>
+      <c r="R265" s="55"/>
+      <c r="S265" s="55"/>
+      <c r="T265" s="55"/>
+      <c r="U265" s="55"/>
+      <c r="V265" s="55"/>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A266" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B266" s="55"/>
+      <c r="C266" s="55"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="55"/>
+      <c r="G266" s="55"/>
+      <c r="H266" s="55"/>
+      <c r="I266" s="55"/>
+      <c r="J266" s="55"/>
+      <c r="K266" s="55"/>
+      <c r="L266" s="55"/>
+      <c r="M266" s="55"/>
+      <c r="N266" s="55"/>
+      <c r="O266" s="55"/>
+      <c r="P266" s="55"/>
+      <c r="Q266" s="55"/>
+      <c r="R266" s="55"/>
+      <c r="S266" s="55"/>
+      <c r="T266" s="55"/>
+      <c r="U266" s="55"/>
+      <c r="V266" s="55"/>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A267" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B267" s="55"/>
+      <c r="C267" s="55"/>
+      <c r="D267" s="55"/>
+      <c r="E267" s="55"/>
+      <c r="F267" s="55"/>
+      <c r="G267" s="55"/>
+      <c r="H267" s="55"/>
+      <c r="I267" s="55"/>
+      <c r="J267" s="55"/>
+      <c r="K267" s="55"/>
+      <c r="L267" s="55"/>
+      <c r="M267" s="55"/>
+      <c r="N267" s="55"/>
+      <c r="O267" s="55"/>
+      <c r="P267" s="55"/>
+      <c r="Q267" s="55"/>
+      <c r="R267" s="55"/>
+      <c r="S267" s="55"/>
+      <c r="T267" s="55"/>
+      <c r="U267" s="55"/>
+      <c r="V267" s="55"/>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A268" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B268" s="55"/>
+      <c r="C268" s="55"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="55"/>
+      <c r="G268" s="55"/>
+      <c r="H268" s="55"/>
+      <c r="I268" s="55"/>
+      <c r="J268" s="55"/>
+      <c r="K268" s="55"/>
+      <c r="L268" s="55"/>
+      <c r="M268" s="55"/>
+      <c r="N268" s="55"/>
+      <c r="O268" s="55"/>
+      <c r="P268" s="55"/>
+      <c r="Q268" s="55"/>
+      <c r="R268" s="55"/>
+      <c r="S268" s="55"/>
+      <c r="T268" s="55"/>
+      <c r="U268" s="55"/>
+      <c r="V268" s="55"/>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A269" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B269" s="55"/>
+      <c r="C269" s="55"/>
+      <c r="D269" s="55"/>
+      <c r="E269" s="55"/>
+      <c r="F269" s="55"/>
+      <c r="G269" s="55"/>
+      <c r="H269" s="55"/>
+      <c r="I269" s="55"/>
+      <c r="J269" s="55"/>
+      <c r="K269" s="55"/>
+      <c r="L269" s="55"/>
+      <c r="M269" s="55"/>
+      <c r="N269" s="55"/>
+      <c r="O269" s="55"/>
+      <c r="P269" s="55"/>
+      <c r="Q269" s="55"/>
+      <c r="R269" s="55"/>
+      <c r="S269" s="55"/>
+      <c r="T269" s="55"/>
+      <c r="U269" s="55"/>
+      <c r="V269" s="55"/>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A270" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="B270" s="55"/>
+      <c r="C270" s="55"/>
+      <c r="D270" s="55"/>
+      <c r="E270" s="55"/>
+      <c r="F270" s="55"/>
+      <c r="G270" s="55"/>
+      <c r="H270" s="55"/>
+      <c r="I270" s="55"/>
+      <c r="J270" s="55"/>
+      <c r="K270" s="55"/>
+      <c r="L270" s="55"/>
+      <c r="M270" s="55"/>
+      <c r="N270" s="55"/>
+      <c r="O270" s="55"/>
+      <c r="P270" s="55"/>
+      <c r="Q270" s="55"/>
+      <c r="R270" s="55"/>
+      <c r="S270" s="55"/>
+      <c r="T270" s="55"/>
+      <c r="U270" s="55"/>
+      <c r="V270" s="55"/>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A271" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B271" s="55"/>
+      <c r="C271" s="55"/>
+      <c r="D271" s="55"/>
+      <c r="E271" s="55"/>
+      <c r="F271" s="55"/>
+      <c r="G271" s="55"/>
+      <c r="H271" s="55"/>
+      <c r="I271" s="55"/>
+      <c r="J271" s="55"/>
+      <c r="K271" s="55"/>
+      <c r="L271" s="55"/>
+      <c r="M271" s="55"/>
+      <c r="N271" s="55"/>
+      <c r="O271" s="55"/>
+      <c r="P271" s="55"/>
+      <c r="Q271" s="55"/>
+      <c r="R271" s="55"/>
+      <c r="S271" s="55"/>
+      <c r="T271" s="55"/>
+      <c r="U271" s="55"/>
+      <c r="V271" s="55"/>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A272" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B272" s="55"/>
+      <c r="C272" s="55"/>
+      <c r="D272" s="55"/>
+      <c r="E272" s="55"/>
+      <c r="F272" s="55"/>
+      <c r="G272" s="55"/>
+      <c r="H272" s="55"/>
+      <c r="I272" s="55"/>
+      <c r="J272" s="55"/>
+      <c r="K272" s="55"/>
+      <c r="L272" s="55"/>
+      <c r="M272" s="55"/>
+      <c r="N272" s="55"/>
+      <c r="O272" s="55"/>
+      <c r="P272" s="55"/>
+      <c r="Q272" s="55"/>
+      <c r="R272" s="55"/>
+      <c r="S272" s="55"/>
+      <c r="T272" s="55"/>
+      <c r="U272" s="55"/>
+      <c r="V272" s="55"/>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A273" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B273" s="55"/>
+      <c r="C273" s="55"/>
+      <c r="D273" s="55"/>
+      <c r="E273" s="55"/>
+      <c r="F273" s="55"/>
+      <c r="G273" s="55"/>
+      <c r="H273" s="55"/>
+      <c r="I273" s="55"/>
+      <c r="J273" s="55"/>
+      <c r="K273" s="55"/>
+      <c r="L273" s="55"/>
+      <c r="M273" s="55"/>
+      <c r="N273" s="55"/>
+      <c r="O273" s="55"/>
+      <c r="P273" s="55"/>
+      <c r="Q273" s="55"/>
+      <c r="R273" s="55"/>
+      <c r="S273" s="55"/>
+      <c r="T273" s="55"/>
+      <c r="U273" s="55"/>
+      <c r="V273" s="55"/>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A274" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B274" s="55"/>
+      <c r="C274" s="55"/>
+      <c r="D274" s="55"/>
+      <c r="E274" s="55"/>
+      <c r="F274" s="55"/>
+      <c r="G274" s="55"/>
+      <c r="H274" s="55"/>
+      <c r="I274" s="55"/>
+      <c r="J274" s="55"/>
+      <c r="K274" s="55"/>
+      <c r="L274" s="55"/>
+      <c r="M274" s="55"/>
+      <c r="N274" s="55"/>
+      <c r="O274" s="55"/>
+      <c r="P274" s="55"/>
+      <c r="Q274" s="55"/>
+      <c r="R274" s="55"/>
+      <c r="S274" s="55"/>
+      <c r="T274" s="55"/>
+      <c r="U274" s="55"/>
+      <c r="V274" s="55"/>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A275" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="55"/>
+      <c r="C275" s="55"/>
+      <c r="D275" s="55"/>
+      <c r="E275" s="55"/>
+      <c r="F275" s="55"/>
+      <c r="G275" s="55"/>
+      <c r="H275" s="55"/>
+      <c r="I275" s="55"/>
+      <c r="J275" s="55"/>
+      <c r="K275" s="55"/>
+      <c r="L275" s="55"/>
+      <c r="M275" s="55"/>
+      <c r="N275" s="55"/>
+      <c r="O275" s="55"/>
+      <c r="P275" s="55"/>
+      <c r="Q275" s="55"/>
+      <c r="R275" s="55"/>
+      <c r="S275" s="55"/>
+      <c r="T275" s="55"/>
+      <c r="U275" s="55"/>
+      <c r="V275" s="55"/>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A276" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="B276" s="55"/>
+      <c r="C276" s="55"/>
+      <c r="D276" s="55"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="55"/>
+      <c r="G276" s="55"/>
+      <c r="H276" s="55"/>
+      <c r="I276" s="55"/>
+      <c r="J276" s="55"/>
+      <c r="K276" s="55"/>
+      <c r="L276" s="55"/>
+      <c r="M276" s="55"/>
+      <c r="N276" s="55"/>
+      <c r="O276" s="55"/>
+      <c r="P276" s="55"/>
+      <c r="Q276" s="55"/>
+      <c r="R276" s="55"/>
+      <c r="S276" s="55"/>
+      <c r="T276" s="55"/>
+      <c r="U276" s="55"/>
+      <c r="V276" s="55"/>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A277" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="B277" s="55"/>
+      <c r="C277" s="55"/>
+      <c r="D277" s="55"/>
+      <c r="E277" s="55"/>
+      <c r="F277" s="55"/>
+      <c r="G277" s="55"/>
+      <c r="H277" s="55"/>
+      <c r="I277" s="55"/>
+      <c r="J277" s="55"/>
+      <c r="K277" s="55"/>
+      <c r="L277" s="55"/>
+      <c r="M277" s="55"/>
+      <c r="N277" s="55"/>
+      <c r="O277" s="55"/>
+      <c r="P277" s="55"/>
+      <c r="Q277" s="55"/>
+      <c r="R277" s="55"/>
+      <c r="S277" s="55"/>
+      <c r="T277" s="55"/>
+      <c r="U277" s="55"/>
+      <c r="V277" s="55"/>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A278" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="B278" s="55"/>
+      <c r="C278" s="55"/>
+      <c r="D278" s="55"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="55"/>
+      <c r="G278" s="55"/>
+      <c r="H278" s="55"/>
+      <c r="I278" s="55"/>
+      <c r="J278" s="55"/>
+      <c r="K278" s="55"/>
+      <c r="L278" s="55"/>
+      <c r="M278" s="55"/>
+      <c r="N278" s="55"/>
+      <c r="O278" s="55"/>
+      <c r="P278" s="55"/>
+      <c r="Q278" s="55"/>
+      <c r="R278" s="55"/>
+      <c r="S278" s="55"/>
+      <c r="T278" s="55"/>
+      <c r="U278" s="55"/>
+      <c r="V278" s="55"/>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A279" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B279" s="55"/>
+      <c r="C279" s="55"/>
+      <c r="D279" s="55"/>
+      <c r="E279" s="55"/>
+      <c r="F279" s="55"/>
+      <c r="G279" s="55"/>
+      <c r="H279" s="55"/>
+      <c r="I279" s="55"/>
+      <c r="J279" s="55"/>
+      <c r="K279" s="55"/>
+      <c r="L279" s="55"/>
+      <c r="M279" s="55"/>
+      <c r="N279" s="55"/>
+      <c r="O279" s="55"/>
+      <c r="P279" s="55"/>
+      <c r="Q279" s="55"/>
+      <c r="R279" s="55"/>
+      <c r="S279" s="55"/>
+      <c r="T279" s="55"/>
+      <c r="U279" s="55"/>
+      <c r="V279" s="55"/>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A280" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="B280" s="55"/>
+      <c r="C280" s="55"/>
+      <c r="D280" s="55"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="55"/>
+      <c r="G280" s="55"/>
+      <c r="H280" s="55"/>
+      <c r="I280" s="55"/>
+      <c r="J280" s="55"/>
+      <c r="K280" s="55"/>
+      <c r="L280" s="55"/>
+      <c r="M280" s="55"/>
+      <c r="N280" s="55"/>
+      <c r="O280" s="55"/>
+      <c r="P280" s="55"/>
+      <c r="Q280" s="55"/>
+      <c r="R280" s="55"/>
+      <c r="S280" s="55"/>
+      <c r="T280" s="55"/>
+      <c r="U280" s="55"/>
+      <c r="V280" s="55"/>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A281" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="B281" s="55"/>
+      <c r="C281" s="55"/>
+      <c r="D281" s="55"/>
+      <c r="E281" s="55"/>
+      <c r="F281" s="55"/>
+      <c r="G281" s="55"/>
+      <c r="H281" s="55"/>
+      <c r="I281" s="55"/>
+      <c r="J281" s="55"/>
+      <c r="K281" s="55"/>
+      <c r="L281" s="55"/>
+      <c r="M281" s="55"/>
+      <c r="N281" s="55"/>
+      <c r="O281" s="55"/>
+      <c r="P281" s="55"/>
+      <c r="Q281" s="55"/>
+      <c r="R281" s="55"/>
+      <c r="S281" s="55"/>
+      <c r="T281" s="55"/>
+      <c r="U281" s="55"/>
+      <c r="V281" s="55"/>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A282" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B282" s="55"/>
+      <c r="C282" s="55"/>
+      <c r="D282" s="55"/>
+      <c r="E282" s="55"/>
+      <c r="F282" s="55"/>
+      <c r="G282" s="55"/>
+      <c r="H282" s="55"/>
+      <c r="I282" s="55"/>
+      <c r="J282" s="55"/>
+      <c r="K282" s="55"/>
+      <c r="L282" s="55"/>
+      <c r="M282" s="55"/>
+      <c r="N282" s="55"/>
+      <c r="O282" s="55"/>
+      <c r="P282" s="55"/>
+      <c r="Q282" s="55"/>
+      <c r="R282" s="55"/>
+      <c r="S282" s="55"/>
+      <c r="T282" s="55"/>
+      <c r="U282" s="55"/>
+      <c r="V282" s="55"/>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A283" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="B283" s="55"/>
+      <c r="C283" s="55"/>
+      <c r="D283" s="55"/>
+      <c r="E283" s="55"/>
+      <c r="F283" s="55"/>
+      <c r="G283" s="55"/>
+      <c r="H283" s="55"/>
+      <c r="I283" s="55"/>
+      <c r="J283" s="55"/>
+      <c r="K283" s="55"/>
+      <c r="L283" s="55"/>
+      <c r="M283" s="55"/>
+      <c r="N283" s="55"/>
+      <c r="O283" s="55"/>
+      <c r="P283" s="55"/>
+      <c r="Q283" s="55"/>
+      <c r="R283" s="55"/>
+      <c r="S283" s="55"/>
+      <c r="T283" s="55"/>
+      <c r="U283" s="55"/>
+      <c r="V283" s="55"/>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A284" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="B284" s="55"/>
+      <c r="C284" s="55"/>
+      <c r="D284" s="55"/>
+      <c r="E284" s="55"/>
+      <c r="F284" s="55"/>
+      <c r="G284" s="55"/>
+      <c r="H284" s="55"/>
+      <c r="I284" s="55"/>
+      <c r="J284" s="55"/>
+      <c r="K284" s="55"/>
+      <c r="L284" s="55"/>
+      <c r="M284" s="55"/>
+      <c r="N284" s="55"/>
+      <c r="O284" s="55"/>
+      <c r="P284" s="55"/>
+      <c r="Q284" s="55"/>
+      <c r="R284" s="55"/>
+      <c r="S284" s="55"/>
+      <c r="T284" s="55"/>
+      <c r="U284" s="55"/>
+      <c r="V284" s="55"/>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A285" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="B285" s="55"/>
+      <c r="C285" s="55"/>
+      <c r="D285" s="55"/>
+      <c r="E285" s="55"/>
+      <c r="F285" s="55"/>
+      <c r="G285" s="55"/>
+      <c r="H285" s="55"/>
+      <c r="I285" s="55"/>
+      <c r="J285" s="55"/>
+      <c r="K285" s="55"/>
+      <c r="L285" s="55"/>
+      <c r="M285" s="55"/>
+      <c r="N285" s="55"/>
+      <c r="O285" s="55"/>
+      <c r="P285" s="55"/>
+      <c r="Q285" s="55"/>
+      <c r="R285" s="55"/>
+      <c r="S285" s="55"/>
+      <c r="T285" s="55"/>
+      <c r="U285" s="55"/>
+      <c r="V285" s="55"/>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A286" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B286" s="55"/>
+      <c r="C286" s="55"/>
+      <c r="D286" s="55"/>
+      <c r="E286" s="55"/>
+      <c r="F286" s="55"/>
+      <c r="G286" s="55"/>
+      <c r="H286" s="55"/>
+      <c r="I286" s="55"/>
+      <c r="J286" s="55"/>
+      <c r="K286" s="55"/>
+      <c r="L286" s="55"/>
+      <c r="M286" s="55"/>
+      <c r="N286" s="55"/>
+      <c r="O286" s="55"/>
+      <c r="P286" s="55"/>
+      <c r="Q286" s="55"/>
+      <c r="R286" s="55"/>
+      <c r="S286" s="55"/>
+      <c r="T286" s="55"/>
+      <c r="U286" s="55"/>
+      <c r="V286" s="55"/>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A287" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="B287" s="55"/>
+      <c r="C287" s="55"/>
+      <c r="D287" s="55"/>
+      <c r="E287" s="55"/>
+      <c r="F287" s="55"/>
+      <c r="G287" s="55"/>
+      <c r="H287" s="55"/>
+      <c r="I287" s="55"/>
+      <c r="J287" s="55"/>
+      <c r="K287" s="55"/>
+      <c r="L287" s="55"/>
+      <c r="M287" s="55"/>
+      <c r="N287" s="55"/>
+      <c r="O287" s="55"/>
+      <c r="P287" s="55"/>
+      <c r="Q287" s="55"/>
+      <c r="R287" s="55"/>
+      <c r="S287" s="55"/>
+      <c r="T287" s="55"/>
+      <c r="U287" s="55"/>
+      <c r="V287" s="55"/>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A288" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B288" s="55"/>
+      <c r="C288" s="55"/>
+      <c r="D288" s="55"/>
+      <c r="E288" s="55"/>
+      <c r="F288" s="55"/>
+      <c r="G288" s="55"/>
+      <c r="H288" s="55"/>
+      <c r="I288" s="55"/>
+      <c r="J288" s="55"/>
+      <c r="K288" s="55"/>
+      <c r="L288" s="55"/>
+      <c r="M288" s="55"/>
+      <c r="N288" s="55"/>
+      <c r="O288" s="55"/>
+      <c r="P288" s="55"/>
+      <c r="Q288" s="55"/>
+      <c r="R288" s="55"/>
+      <c r="S288" s="55"/>
+      <c r="T288" s="55"/>
+      <c r="U288" s="55"/>
+      <c r="V288" s="55"/>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A289" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289" s="55"/>
+      <c r="C289" s="55"/>
+      <c r="D289" s="55"/>
+      <c r="E289" s="55"/>
+      <c r="F289" s="55"/>
+      <c r="G289" s="55"/>
+      <c r="H289" s="55"/>
+      <c r="I289" s="55"/>
+      <c r="J289" s="55"/>
+      <c r="K289" s="55"/>
+      <c r="L289" s="55"/>
+      <c r="M289" s="55"/>
+      <c r="N289" s="55"/>
+      <c r="O289" s="55"/>
+      <c r="P289" s="55"/>
+      <c r="Q289" s="55"/>
+      <c r="R289" s="55"/>
+      <c r="S289" s="55"/>
+      <c r="T289" s="55"/>
+      <c r="U289" s="55"/>
+      <c r="V289" s="55"/>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A290" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290" s="55"/>
+      <c r="C290" s="55"/>
+      <c r="D290" s="55"/>
+      <c r="E290" s="55"/>
+      <c r="F290" s="55"/>
+      <c r="G290" s="55"/>
+      <c r="H290" s="55"/>
+      <c r="I290" s="55"/>
+      <c r="J290" s="55"/>
+      <c r="K290" s="55"/>
+      <c r="L290" s="55"/>
+      <c r="M290" s="55"/>
+      <c r="N290" s="55"/>
+      <c r="O290" s="55"/>
+      <c r="P290" s="55"/>
+      <c r="Q290" s="55"/>
+      <c r="R290" s="55"/>
+      <c r="S290" s="55"/>
+      <c r="T290" s="55"/>
+      <c r="U290" s="55"/>
+      <c r="V290" s="55"/>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A291" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291" s="55"/>
+      <c r="C291" s="55"/>
+      <c r="D291" s="55"/>
+      <c r="E291" s="55"/>
+      <c r="F291" s="55"/>
+      <c r="G291" s="55"/>
+      <c r="H291" s="55"/>
+      <c r="I291" s="55"/>
+      <c r="J291" s="55"/>
+      <c r="K291" s="55"/>
+      <c r="L291" s="55"/>
+      <c r="M291" s="55"/>
+      <c r="N291" s="55"/>
+      <c r="O291" s="55"/>
+      <c r="P291" s="55"/>
+      <c r="Q291" s="55"/>
+      <c r="R291" s="55"/>
+      <c r="S291" s="55"/>
+      <c r="T291" s="55"/>
+      <c r="U291" s="55"/>
+      <c r="V291" s="55"/>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A292" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292" s="55"/>
+      <c r="C292" s="55"/>
+      <c r="D292" s="55"/>
+      <c r="E292" s="55"/>
+      <c r="F292" s="55"/>
+      <c r="G292" s="55"/>
+      <c r="H292" s="55"/>
+      <c r="I292" s="55"/>
+      <c r="J292" s="55"/>
+      <c r="K292" s="55"/>
+      <c r="L292" s="55"/>
+      <c r="M292" s="55"/>
+      <c r="N292" s="55"/>
+      <c r="O292" s="55"/>
+      <c r="P292" s="55"/>
+      <c r="Q292" s="55"/>
+      <c r="R292" s="55"/>
+      <c r="S292" s="55"/>
+      <c r="T292" s="55"/>
+      <c r="U292" s="55"/>
+      <c r="V292" s="55"/>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A293" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293" s="55"/>
+      <c r="C293" s="55"/>
+      <c r="D293" s="55"/>
+      <c r="E293" s="55"/>
+      <c r="F293" s="55"/>
+      <c r="G293" s="55"/>
+      <c r="H293" s="55"/>
+      <c r="I293" s="55"/>
+      <c r="J293" s="55"/>
+      <c r="K293" s="55"/>
+      <c r="L293" s="55"/>
+      <c r="M293" s="55"/>
+      <c r="N293" s="55"/>
+      <c r="O293" s="55"/>
+      <c r="P293" s="55"/>
+      <c r="Q293" s="55"/>
+      <c r="R293" s="55"/>
+      <c r="S293" s="55"/>
+      <c r="T293" s="55"/>
+      <c r="U293" s="55"/>
+      <c r="V293" s="55"/>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A294" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294" s="55"/>
+      <c r="C294" s="55"/>
+      <c r="D294" s="55"/>
+      <c r="E294" s="55"/>
+      <c r="F294" s="55"/>
+      <c r="G294" s="55"/>
+      <c r="H294" s="55"/>
+      <c r="I294" s="55"/>
+      <c r="J294" s="55"/>
+      <c r="K294" s="55"/>
+      <c r="L294" s="55"/>
+      <c r="M294" s="55"/>
+      <c r="N294" s="55"/>
+      <c r="O294" s="55"/>
+      <c r="P294" s="55"/>
+      <c r="Q294" s="55"/>
+      <c r="R294" s="55"/>
+      <c r="S294" s="55"/>
+      <c r="T294" s="55"/>
+      <c r="U294" s="55"/>
+      <c r="V294" s="55"/>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A295" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B295" s="55"/>
+      <c r="C295" s="55"/>
+      <c r="D295" s="55"/>
+      <c r="E295" s="55"/>
+      <c r="F295" s="55"/>
+      <c r="G295" s="55"/>
+      <c r="H295" s="55"/>
+      <c r="I295" s="55"/>
+      <c r="J295" s="55"/>
+      <c r="K295" s="55"/>
+      <c r="L295" s="55"/>
+      <c r="M295" s="55"/>
+      <c r="N295" s="55"/>
+      <c r="O295" s="55"/>
+      <c r="P295" s="55"/>
+      <c r="Q295" s="55"/>
+      <c r="R295" s="55"/>
+      <c r="S295" s="55"/>
+      <c r="T295" s="55"/>
+      <c r="U295" s="55"/>
+      <c r="V295" s="55"/>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A296" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296" s="55"/>
+      <c r="C296" s="55"/>
+      <c r="D296" s="55"/>
+      <c r="E296" s="55"/>
+      <c r="F296" s="55"/>
+      <c r="G296" s="55"/>
+      <c r="H296" s="55"/>
+      <c r="I296" s="55"/>
+      <c r="J296" s="55"/>
+      <c r="K296" s="55"/>
+      <c r="L296" s="55"/>
+      <c r="M296" s="55"/>
+      <c r="N296" s="55"/>
+      <c r="O296" s="55"/>
+      <c r="P296" s="55"/>
+      <c r="Q296" s="55"/>
+      <c r="R296" s="55"/>
+      <c r="S296" s="55"/>
+      <c r="T296" s="55"/>
+      <c r="U296" s="55"/>
+      <c r="V296" s="55"/>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A297" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297" s="55"/>
+      <c r="C297" s="55"/>
+      <c r="D297" s="55"/>
+      <c r="E297" s="55"/>
+      <c r="F297" s="55"/>
+      <c r="G297" s="55"/>
+      <c r="H297" s="55"/>
+      <c r="I297" s="55"/>
+      <c r="J297" s="55"/>
+      <c r="K297" s="55"/>
+      <c r="L297" s="55"/>
+      <c r="M297" s="55"/>
+      <c r="N297" s="55"/>
+      <c r="O297" s="55"/>
+      <c r="P297" s="55"/>
+      <c r="Q297" s="55"/>
+      <c r="R297" s="55"/>
+      <c r="S297" s="55"/>
+      <c r="T297" s="55"/>
+      <c r="U297" s="55"/>
+      <c r="V297" s="55"/>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A298" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B298" s="55"/>
+      <c r="C298" s="55"/>
+      <c r="D298" s="55"/>
+      <c r="E298" s="55"/>
+      <c r="F298" s="55"/>
+      <c r="G298" s="55"/>
+      <c r="H298" s="55"/>
+      <c r="I298" s="55"/>
+      <c r="J298" s="55"/>
+      <c r="K298" s="55"/>
+      <c r="L298" s="55"/>
+      <c r="M298" s="55"/>
+      <c r="N298" s="55"/>
+      <c r="O298" s="55"/>
+      <c r="P298" s="55"/>
+      <c r="Q298" s="55"/>
+      <c r="R298" s="55"/>
+      <c r="S298" s="55"/>
+      <c r="T298" s="55"/>
+      <c r="U298" s="55"/>
+      <c r="V298" s="55"/>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A299" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299" s="55"/>
+      <c r="C299" s="55"/>
+      <c r="D299" s="55"/>
+      <c r="E299" s="55"/>
+      <c r="F299" s="55"/>
+      <c r="G299" s="55"/>
+      <c r="H299" s="55"/>
+      <c r="I299" s="55"/>
+      <c r="J299" s="55"/>
+      <c r="K299" s="55"/>
+      <c r="L299" s="55"/>
+      <c r="M299" s="55"/>
+      <c r="N299" s="55"/>
+      <c r="O299" s="55"/>
+      <c r="P299" s="55"/>
+      <c r="Q299" s="55"/>
+      <c r="R299" s="55"/>
+      <c r="S299" s="55"/>
+      <c r="T299" s="55"/>
+      <c r="U299" s="55"/>
+      <c r="V299" s="55"/>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A300" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300" s="55"/>
+      <c r="C300" s="55"/>
+      <c r="D300" s="55"/>
+      <c r="E300" s="55"/>
+      <c r="F300" s="55"/>
+      <c r="G300" s="55"/>
+      <c r="H300" s="55"/>
+      <c r="I300" s="55"/>
+      <c r="J300" s="55"/>
+      <c r="K300" s="55"/>
+      <c r="L300" s="55"/>
+      <c r="M300" s="55"/>
+      <c r="N300" s="55"/>
+      <c r="O300" s="55"/>
+      <c r="P300" s="55"/>
+      <c r="Q300" s="55"/>
+      <c r="R300" s="55"/>
+      <c r="S300" s="55"/>
+      <c r="T300" s="55"/>
+      <c r="U300" s="55"/>
+      <c r="V300" s="55"/>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A301" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301" s="55"/>
+      <c r="C301" s="55"/>
+      <c r="D301" s="55"/>
+      <c r="E301" s="55"/>
+      <c r="F301" s="55"/>
+      <c r="G301" s="55"/>
+      <c r="H301" s="55"/>
+      <c r="I301" s="55"/>
+      <c r="J301" s="55"/>
+      <c r="K301" s="55"/>
+      <c r="L301" s="55"/>
+      <c r="M301" s="55"/>
+      <c r="N301" s="55"/>
+      <c r="O301" s="55"/>
+      <c r="P301" s="55"/>
+      <c r="Q301" s="55"/>
+      <c r="R301" s="55"/>
+      <c r="S301" s="55"/>
+      <c r="T301" s="55"/>
+      <c r="U301" s="55"/>
+      <c r="V301" s="55"/>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A302" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="B302" s="55"/>
+      <c r="C302" s="55"/>
+      <c r="D302" s="55"/>
+      <c r="E302" s="55"/>
+      <c r="F302" s="55"/>
+      <c r="G302" s="55"/>
+      <c r="H302" s="55"/>
+      <c r="I302" s="55"/>
+      <c r="J302" s="55"/>
+      <c r="K302" s="55"/>
+      <c r="L302" s="55"/>
+      <c r="M302" s="55"/>
+      <c r="N302" s="55"/>
+      <c r="O302" s="55"/>
+      <c r="P302" s="55"/>
+      <c r="Q302" s="55"/>
+      <c r="R302" s="55"/>
+      <c r="S302" s="55"/>
+      <c r="T302" s="55"/>
+      <c r="U302" s="55"/>
+      <c r="V302" s="55"/>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A303" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B303" s="55"/>
+      <c r="C303" s="55"/>
+      <c r="D303" s="55"/>
+      <c r="E303" s="55"/>
+      <c r="F303" s="55"/>
+      <c r="G303" s="55"/>
+      <c r="H303" s="55"/>
+      <c r="I303" s="55"/>
+      <c r="J303" s="55"/>
+      <c r="K303" s="55"/>
+      <c r="L303" s="55"/>
+      <c r="M303" s="55"/>
+      <c r="N303" s="55"/>
+      <c r="O303" s="55"/>
+      <c r="P303" s="55"/>
+      <c r="Q303" s="55"/>
+      <c r="R303" s="55"/>
+      <c r="S303" s="55"/>
+      <c r="T303" s="55"/>
+      <c r="U303" s="55"/>
+      <c r="V303" s="55"/>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A304" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304" s="55"/>
+      <c r="C304" s="55"/>
+      <c r="D304" s="55"/>
+      <c r="E304" s="55"/>
+      <c r="F304" s="55"/>
+      <c r="G304" s="55"/>
+      <c r="H304" s="55"/>
+      <c r="I304" s="55"/>
+      <c r="J304" s="55"/>
+      <c r="K304" s="55"/>
+      <c r="L304" s="55"/>
+      <c r="M304" s="55"/>
+      <c r="N304" s="55"/>
+      <c r="O304" s="55"/>
+      <c r="P304" s="55"/>
+      <c r="Q304" s="55"/>
+      <c r="R304" s="55"/>
+      <c r="S304" s="55"/>
+      <c r="T304" s="55"/>
+      <c r="U304" s="55"/>
+      <c r="V304" s="55"/>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A305" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="B305" s="55"/>
+      <c r="C305" s="55"/>
+      <c r="D305" s="55"/>
+      <c r="E305" s="55"/>
+      <c r="F305" s="55"/>
+      <c r="G305" s="55"/>
+      <c r="H305" s="55"/>
+      <c r="I305" s="55"/>
+      <c r="J305" s="55"/>
+      <c r="K305" s="55"/>
+      <c r="L305" s="55"/>
+      <c r="M305" s="55"/>
+      <c r="N305" s="55"/>
+      <c r="O305" s="55"/>
+      <c r="P305" s="55"/>
+      <c r="Q305" s="55"/>
+      <c r="R305" s="55"/>
+      <c r="S305" s="55"/>
+      <c r="T305" s="55"/>
+      <c r="U305" s="55"/>
+      <c r="V305" s="55"/>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A306" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" s="55"/>
+      <c r="C306" s="55"/>
+      <c r="D306" s="55"/>
+      <c r="E306" s="55"/>
+      <c r="F306" s="55"/>
+      <c r="G306" s="55"/>
+      <c r="H306" s="55"/>
+      <c r="I306" s="55"/>
+      <c r="J306" s="55"/>
+      <c r="K306" s="55"/>
+      <c r="L306" s="55"/>
+      <c r="M306" s="55"/>
+      <c r="N306" s="55"/>
+      <c r="O306" s="55"/>
+      <c r="P306" s="55"/>
+      <c r="Q306" s="55"/>
+      <c r="R306" s="55"/>
+      <c r="S306" s="55"/>
+      <c r="T306" s="55"/>
+      <c r="U306" s="55"/>
+      <c r="V306" s="55"/>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A307" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B307" s="55"/>
+      <c r="C307" s="55"/>
+      <c r="D307" s="55"/>
+      <c r="E307" s="55"/>
+      <c r="F307" s="55"/>
+      <c r="G307" s="55"/>
+      <c r="H307" s="55"/>
+      <c r="I307" s="55"/>
+      <c r="J307" s="55"/>
+      <c r="K307" s="55"/>
+      <c r="L307" s="55"/>
+      <c r="M307" s="55"/>
+      <c r="N307" s="55"/>
+      <c r="O307" s="55"/>
+      <c r="P307" s="55"/>
+      <c r="Q307" s="55"/>
+      <c r="R307" s="55"/>
+      <c r="S307" s="55"/>
+      <c r="T307" s="55"/>
+      <c r="U307" s="55"/>
+      <c r="V307" s="55"/>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A308" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" s="55"/>
+      <c r="C308" s="55"/>
+      <c r="D308" s="55"/>
+      <c r="E308" s="55"/>
+      <c r="F308" s="55"/>
+      <c r="G308" s="55"/>
+      <c r="H308" s="55"/>
+      <c r="I308" s="55"/>
+      <c r="J308" s="55"/>
+      <c r="K308" s="55"/>
+      <c r="L308" s="55"/>
+      <c r="M308" s="55"/>
+      <c r="N308" s="55"/>
+      <c r="O308" s="55"/>
+      <c r="P308" s="55"/>
+      <c r="Q308" s="55"/>
+      <c r="R308" s="55"/>
+      <c r="S308" s="55"/>
+      <c r="T308" s="55"/>
+      <c r="U308" s="55"/>
+      <c r="V308" s="55"/>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A309" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B309" s="55"/>
+      <c r="C309" s="55"/>
+      <c r="D309" s="55"/>
+      <c r="E309" s="55"/>
+      <c r="F309" s="55"/>
+      <c r="G309" s="55"/>
+      <c r="H309" s="55"/>
+      <c r="I309" s="55"/>
+      <c r="J309" s="55"/>
+      <c r="K309" s="55"/>
+      <c r="L309" s="55"/>
+      <c r="M309" s="55"/>
+      <c r="N309" s="55"/>
+      <c r="O309" s="55"/>
+      <c r="P309" s="55"/>
+      <c r="Q309" s="55"/>
+      <c r="R309" s="55"/>
+      <c r="S309" s="55"/>
+      <c r="T309" s="55"/>
+      <c r="U309" s="55"/>
+      <c r="V309" s="55"/>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A310" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310" s="55"/>
+      <c r="C310" s="55"/>
+      <c r="D310" s="55"/>
+      <c r="E310" s="55"/>
+      <c r="F310" s="55"/>
+      <c r="G310" s="55"/>
+      <c r="H310" s="55"/>
+      <c r="I310" s="55"/>
+      <c r="J310" s="55"/>
+      <c r="K310" s="55"/>
+      <c r="L310" s="55"/>
+      <c r="M310" s="55"/>
+      <c r="N310" s="55"/>
+      <c r="O310" s="55"/>
+      <c r="P310" s="55"/>
+      <c r="Q310" s="55"/>
+      <c r="R310" s="55"/>
+      <c r="S310" s="55"/>
+      <c r="T310" s="55"/>
+      <c r="U310" s="55"/>
+      <c r="V310" s="55"/>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A311" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311" s="55"/>
+      <c r="C311" s="55"/>
+      <c r="D311" s="55"/>
+      <c r="E311" s="55"/>
+      <c r="F311" s="55"/>
+      <c r="G311" s="55"/>
+      <c r="H311" s="55"/>
+      <c r="I311" s="55"/>
+      <c r="J311" s="55"/>
+      <c r="K311" s="55"/>
+      <c r="L311" s="55"/>
+      <c r="M311" s="55"/>
+      <c r="N311" s="55"/>
+      <c r="O311" s="55"/>
+      <c r="P311" s="55"/>
+      <c r="Q311" s="55"/>
+      <c r="R311" s="55"/>
+      <c r="S311" s="55"/>
+      <c r="T311" s="55"/>
+      <c r="U311" s="55"/>
+      <c r="V311" s="55"/>
+    </row>
+    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A312" s="56"/>
+      <c r="B312" s="55"/>
+      <c r="C312" s="55"/>
+      <c r="D312" s="55"/>
+      <c r="E312" s="55"/>
+      <c r="F312" s="55"/>
+      <c r="G312" s="55"/>
+      <c r="H312" s="55"/>
+      <c r="I312" s="55"/>
+      <c r="J312" s="55"/>
+      <c r="K312" s="55"/>
+      <c r="L312" s="55"/>
+      <c r="M312" s="55"/>
+      <c r="N312" s="55"/>
+      <c r="O312" s="55"/>
+      <c r="P312" s="55"/>
+      <c r="Q312" s="55"/>
+      <c r="R312" s="55"/>
+      <c r="S312" s="55"/>
+      <c r="T312" s="55"/>
+      <c r="U312" s="55"/>
+    </row>
+    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A313" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="B313" s="55"/>
+      <c r="C313" s="55"/>
+      <c r="D313" s="55"/>
+      <c r="E313" s="55"/>
+      <c r="F313" s="55"/>
+      <c r="G313" s="55"/>
+      <c r="H313" s="55"/>
+      <c r="I313" s="55"/>
+      <c r="J313" s="55"/>
+      <c r="K313" s="55"/>
+      <c r="L313" s="55"/>
+      <c r="M313" s="55"/>
+      <c r="N313" s="55"/>
+      <c r="O313" s="55"/>
+      <c r="P313" s="55"/>
+      <c r="Q313" s="55"/>
+      <c r="R313" s="55"/>
+      <c r="S313" s="55"/>
+      <c r="T313" s="55"/>
+      <c r="U313" s="55"/>
+    </row>
+    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A314" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="B314" s="55"/>
+      <c r="C314" s="55"/>
+      <c r="D314" s="55"/>
+      <c r="E314" s="55"/>
+      <c r="F314" s="55"/>
+      <c r="G314" s="55"/>
+      <c r="H314" s="55"/>
+      <c r="I314" s="55"/>
+      <c r="J314" s="55"/>
+      <c r="K314" s="55"/>
+      <c r="L314" s="55"/>
+      <c r="M314" s="55"/>
+      <c r="N314" s="55"/>
+      <c r="O314" s="55"/>
+      <c r="P314" s="55"/>
+      <c r="Q314" s="55"/>
+      <c r="R314" s="55"/>
+      <c r="S314" s="55"/>
+      <c r="T314" s="55"/>
+      <c r="U314" s="55"/>
+    </row>
+    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A315" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="B315" s="55"/>
+      <c r="C315" s="55"/>
+      <c r="D315" s="55"/>
+      <c r="E315" s="55"/>
+      <c r="F315" s="55"/>
+      <c r="G315" s="55"/>
+      <c r="H315" s="55"/>
+      <c r="I315" s="55"/>
+      <c r="J315" s="55"/>
+      <c r="K315" s="55"/>
+      <c r="L315" s="55"/>
+      <c r="M315" s="55"/>
+      <c r="N315" s="55"/>
+      <c r="O315" s="55"/>
+      <c r="P315" s="55"/>
+      <c r="Q315" s="55"/>
+      <c r="R315" s="55"/>
+      <c r="S315" s="55"/>
+      <c r="T315" s="55"/>
+      <c r="U315" s="55"/>
+    </row>
+    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A316" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="B316" s="55"/>
+      <c r="C316" s="55"/>
+      <c r="D316" s="55"/>
+      <c r="E316" s="55"/>
+      <c r="F316" s="55"/>
+      <c r="G316" s="55"/>
+      <c r="H316" s="55"/>
+      <c r="I316" s="55"/>
+      <c r="J316" s="55"/>
+      <c r="K316" s="55"/>
+      <c r="L316" s="55"/>
+      <c r="M316" s="55"/>
+      <c r="N316" s="55"/>
+      <c r="O316" s="55"/>
+      <c r="P316" s="55"/>
+      <c r="Q316" s="55"/>
+      <c r="R316" s="55"/>
+      <c r="S316" s="55"/>
+      <c r="T316" s="55"/>
+      <c r="U316" s="55"/>
+    </row>
+    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A317" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B317" s="55"/>
+      <c r="C317" s="55"/>
+      <c r="D317" s="55"/>
+      <c r="E317" s="55"/>
+      <c r="F317" s="55"/>
+      <c r="G317" s="55"/>
+      <c r="H317" s="55"/>
+      <c r="I317" s="55"/>
+      <c r="J317" s="55"/>
+      <c r="K317" s="55"/>
+      <c r="L317" s="55"/>
+      <c r="M317" s="55"/>
+      <c r="N317" s="55"/>
+      <c r="O317" s="55"/>
+      <c r="P317" s="55"/>
+      <c r="Q317" s="55"/>
+      <c r="R317" s="55"/>
+      <c r="S317" s="55"/>
+      <c r="T317" s="55"/>
+      <c r="U317" s="55"/>
+    </row>
+    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A318" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="B318" s="55"/>
+      <c r="C318" s="55"/>
+      <c r="D318" s="55"/>
+      <c r="E318" s="55"/>
+      <c r="F318" s="55"/>
+      <c r="G318" s="55"/>
+      <c r="H318" s="55"/>
+      <c r="I318" s="55"/>
+      <c r="J318" s="55"/>
+      <c r="K318" s="55"/>
+      <c r="L318" s="55"/>
+      <c r="M318" s="55"/>
+      <c r="N318" s="55"/>
+      <c r="O318" s="55"/>
+      <c r="P318" s="55"/>
+      <c r="Q318" s="55"/>
+      <c r="R318" s="55"/>
+      <c r="S318" s="55"/>
+      <c r="T318" s="55"/>
+      <c r="U318" s="55"/>
+    </row>
+    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A319" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B319" s="55"/>
+      <c r="C319" s="55"/>
+      <c r="D319" s="55"/>
+      <c r="E319" s="55"/>
+      <c r="F319" s="55"/>
+      <c r="G319" s="55"/>
+      <c r="H319" s="55"/>
+      <c r="I319" s="55"/>
+      <c r="J319" s="55"/>
+      <c r="K319" s="55"/>
+      <c r="L319" s="55"/>
+      <c r="M319" s="55"/>
+      <c r="N319" s="55"/>
+      <c r="O319" s="55"/>
+      <c r="P319" s="55"/>
+      <c r="Q319" s="55"/>
+      <c r="R319" s="55"/>
+      <c r="S319" s="55"/>
+      <c r="T319" s="55"/>
+      <c r="U319" s="55"/>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A320" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B320" s="55"/>
+      <c r="C320" s="55"/>
+      <c r="D320" s="55"/>
+      <c r="E320" s="55"/>
+      <c r="F320" s="55"/>
+      <c r="G320" s="55"/>
+      <c r="H320" s="55"/>
+      <c r="I320" s="55"/>
+      <c r="J320" s="55"/>
+      <c r="K320" s="55"/>
+      <c r="L320" s="55"/>
+      <c r="M320" s="55"/>
+      <c r="N320" s="55"/>
+      <c r="O320" s="55"/>
+      <c r="P320" s="55"/>
+      <c r="Q320" s="55"/>
+      <c r="R320" s="55"/>
+      <c r="S320" s="55"/>
+      <c r="T320" s="55"/>
+      <c r="U320" s="55"/>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A321" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="B321" s="55"/>
+      <c r="C321" s="55"/>
+      <c r="D321" s="55"/>
+      <c r="E321" s="55"/>
+      <c r="F321" s="55"/>
+      <c r="G321" s="55"/>
+      <c r="H321" s="55"/>
+      <c r="I321" s="55"/>
+      <c r="J321" s="55"/>
+      <c r="K321" s="55"/>
+      <c r="L321" s="55"/>
+      <c r="M321" s="55"/>
+      <c r="N321" s="55"/>
+      <c r="O321" s="55"/>
+      <c r="P321" s="55"/>
+      <c r="Q321" s="55"/>
+      <c r="R321" s="55"/>
+      <c r="S321" s="55"/>
+      <c r="T321" s="55"/>
+      <c r="U321" s="55"/>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A322" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B322" s="55"/>
+      <c r="C322" s="55"/>
+      <c r="D322" s="55"/>
+      <c r="E322" s="55"/>
+      <c r="F322" s="55"/>
+      <c r="G322" s="55"/>
+      <c r="H322" s="55"/>
+      <c r="I322" s="55"/>
+      <c r="J322" s="55"/>
+      <c r="K322" s="55"/>
+      <c r="L322" s="55"/>
+      <c r="M322" s="55"/>
+      <c r="N322" s="55"/>
+      <c r="O322" s="55"/>
+      <c r="P322" s="55"/>
+      <c r="Q322" s="55"/>
+      <c r="R322" s="55"/>
+      <c r="S322" s="55"/>
+      <c r="T322" s="55"/>
+      <c r="U322" s="55"/>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A323" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B323" s="55"/>
+      <c r="C323" s="55"/>
+      <c r="D323" s="55"/>
+      <c r="E323" s="55"/>
+      <c r="F323" s="55"/>
+      <c r="G323" s="55"/>
+      <c r="H323" s="55"/>
+      <c r="I323" s="55"/>
+      <c r="J323" s="55"/>
+      <c r="K323" s="55"/>
+      <c r="L323" s="55"/>
+      <c r="M323" s="55"/>
+      <c r="N323" s="55"/>
+      <c r="O323" s="55"/>
+      <c r="P323" s="55"/>
+      <c r="Q323" s="55"/>
+      <c r="R323" s="55"/>
+      <c r="S323" s="55"/>
+      <c r="T323" s="55"/>
+      <c r="U323" s="55"/>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A324" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B324" s="55"/>
+      <c r="C324" s="55"/>
+      <c r="D324" s="55"/>
+      <c r="E324" s="55"/>
+      <c r="F324" s="55"/>
+      <c r="G324" s="55"/>
+      <c r="H324" s="55"/>
+      <c r="I324" s="55"/>
+      <c r="J324" s="55"/>
+      <c r="K324" s="55"/>
+      <c r="L324" s="55"/>
+      <c r="M324" s="55"/>
+      <c r="N324" s="55"/>
+      <c r="O324" s="55"/>
+      <c r="P324" s="55"/>
+      <c r="Q324" s="55"/>
+      <c r="R324" s="55"/>
+      <c r="S324" s="55"/>
+      <c r="T324" s="55"/>
+      <c r="U324" s="55"/>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A325" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325" s="55"/>
+      <c r="C325" s="55"/>
+      <c r="D325" s="55"/>
+      <c r="E325" s="55"/>
+      <c r="F325" s="55"/>
+      <c r="G325" s="55"/>
+      <c r="H325" s="55"/>
+      <c r="I325" s="55"/>
+      <c r="J325" s="55"/>
+      <c r="K325" s="55"/>
+      <c r="L325" s="55"/>
+      <c r="M325" s="55"/>
+      <c r="N325" s="55"/>
+      <c r="O325" s="55"/>
+      <c r="P325" s="55"/>
+      <c r="Q325" s="55"/>
+      <c r="R325" s="55"/>
+      <c r="S325" s="55"/>
+      <c r="T325" s="55"/>
+      <c r="U325" s="55"/>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A326" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326" s="55"/>
+      <c r="C326" s="55"/>
+      <c r="D326" s="55"/>
+      <c r="E326" s="55"/>
+      <c r="F326" s="55"/>
+      <c r="G326" s="55"/>
+      <c r="H326" s="55"/>
+      <c r="I326" s="55"/>
+      <c r="J326" s="55"/>
+      <c r="K326" s="55"/>
+      <c r="L326" s="55"/>
+      <c r="M326" s="55"/>
+      <c r="N326" s="55"/>
+      <c r="O326" s="55"/>
+      <c r="P326" s="55"/>
+      <c r="Q326" s="55"/>
+      <c r="R326" s="55"/>
+      <c r="S326" s="55"/>
+      <c r="T326" s="55"/>
+      <c r="U326" s="55"/>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A327" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="B327" s="55"/>
+      <c r="C327" s="55"/>
+      <c r="D327" s="55"/>
+      <c r="E327" s="55"/>
+      <c r="F327" s="55"/>
+      <c r="G327" s="55"/>
+      <c r="H327" s="55"/>
+      <c r="I327" s="55"/>
+      <c r="J327" s="55"/>
+      <c r="K327" s="55"/>
+      <c r="L327" s="55"/>
+      <c r="M327" s="55"/>
+      <c r="N327" s="55"/>
+      <c r="O327" s="55"/>
+      <c r="P327" s="55"/>
+      <c r="Q327" s="55"/>
+      <c r="R327" s="55"/>
+      <c r="S327" s="55"/>
+      <c r="T327" s="55"/>
+      <c r="U327" s="55"/>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A328" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="B328" s="55"/>
+      <c r="C328" s="55"/>
+      <c r="D328" s="55"/>
+      <c r="E328" s="55"/>
+      <c r="F328" s="55"/>
+      <c r="G328" s="55"/>
+      <c r="H328" s="55"/>
+      <c r="I328" s="55"/>
+      <c r="J328" s="55"/>
+      <c r="K328" s="55"/>
+      <c r="L328" s="55"/>
+      <c r="M328" s="55"/>
+      <c r="N328" s="55"/>
+      <c r="O328" s="55"/>
+      <c r="P328" s="55"/>
+      <c r="Q328" s="55"/>
+      <c r="R328" s="55"/>
+      <c r="S328" s="55"/>
+      <c r="T328" s="55"/>
+      <c r="U328" s="55"/>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A329" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B329" s="55"/>
+      <c r="C329" s="55"/>
+      <c r="D329" s="55"/>
+      <c r="E329" s="55"/>
+      <c r="F329" s="55"/>
+      <c r="G329" s="55"/>
+      <c r="H329" s="55"/>
+      <c r="I329" s="55"/>
+      <c r="J329" s="55"/>
+      <c r="K329" s="55"/>
+      <c r="L329" s="55"/>
+      <c r="M329" s="55"/>
+      <c r="N329" s="55"/>
+      <c r="O329" s="55"/>
+      <c r="P329" s="55"/>
+      <c r="Q329" s="55"/>
+      <c r="R329" s="55"/>
+      <c r="S329" s="55"/>
+      <c r="T329" s="55"/>
+      <c r="U329" s="55"/>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A330" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B330" s="55"/>
+      <c r="C330" s="55"/>
+      <c r="D330" s="55"/>
+      <c r="E330" s="55"/>
+      <c r="F330" s="55"/>
+      <c r="G330" s="55"/>
+      <c r="H330" s="55"/>
+      <c r="I330" s="55"/>
+      <c r="J330" s="55"/>
+      <c r="K330" s="55"/>
+      <c r="L330" s="55"/>
+      <c r="M330" s="55"/>
+      <c r="N330" s="55"/>
+      <c r="O330" s="55"/>
+      <c r="P330" s="55"/>
+      <c r="Q330" s="55"/>
+      <c r="R330" s="55"/>
+      <c r="S330" s="55"/>
+      <c r="T330" s="55"/>
+      <c r="U330" s="55"/>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A331" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="B331" s="55"/>
+      <c r="C331" s="55"/>
+      <c r="D331" s="55"/>
+      <c r="E331" s="55"/>
+      <c r="F331" s="55"/>
+      <c r="G331" s="55"/>
+      <c r="H331" s="55"/>
+      <c r="I331" s="55"/>
+      <c r="J331" s="55"/>
+      <c r="K331" s="55"/>
+      <c r="L331" s="55"/>
+      <c r="M331" s="55"/>
+      <c r="N331" s="55"/>
+      <c r="O331" s="55"/>
+      <c r="P331" s="55"/>
+      <c r="Q331" s="55"/>
+      <c r="R331" s="55"/>
+      <c r="S331" s="55"/>
+      <c r="T331" s="55"/>
+      <c r="U331" s="55"/>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A332" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B332" s="55"/>
+      <c r="C332" s="55"/>
+      <c r="D332" s="55"/>
+      <c r="E332" s="55"/>
+      <c r="F332" s="55"/>
+      <c r="G332" s="55"/>
+      <c r="H332" s="55"/>
+      <c r="I332" s="55"/>
+      <c r="J332" s="55"/>
+      <c r="K332" s="55"/>
+      <c r="L332" s="55"/>
+      <c r="M332" s="55"/>
+      <c r="N332" s="55"/>
+      <c r="O332" s="55"/>
+      <c r="P332" s="55"/>
+      <c r="Q332" s="55"/>
+      <c r="R332" s="55"/>
+      <c r="S332" s="55"/>
+      <c r="T332" s="55"/>
+      <c r="U332" s="55"/>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A333" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="B333" s="55"/>
+      <c r="C333" s="55"/>
+      <c r="D333" s="55"/>
+      <c r="E333" s="55"/>
+      <c r="F333" s="55"/>
+      <c r="G333" s="55"/>
+      <c r="H333" s="55"/>
+      <c r="I333" s="55"/>
+      <c r="J333" s="55"/>
+      <c r="K333" s="55"/>
+      <c r="L333" s="55"/>
+      <c r="M333" s="55"/>
+      <c r="N333" s="55"/>
+      <c r="O333" s="55"/>
+      <c r="P333" s="55"/>
+      <c r="Q333" s="55"/>
+      <c r="R333" s="55"/>
+      <c r="S333" s="55"/>
+      <c r="T333" s="55"/>
+      <c r="U333" s="55"/>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A334" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B334" s="55"/>
+      <c r="C334" s="55"/>
+      <c r="D334" s="55"/>
+      <c r="E334" s="55"/>
+      <c r="F334" s="55"/>
+      <c r="G334" s="55"/>
+      <c r="H334" s="55"/>
+      <c r="I334" s="55"/>
+      <c r="J334" s="55"/>
+      <c r="K334" s="55"/>
+      <c r="L334" s="55"/>
+      <c r="M334" s="55"/>
+      <c r="N334" s="55"/>
+      <c r="O334" s="55"/>
+      <c r="P334" s="55"/>
+      <c r="Q334" s="55"/>
+      <c r="R334" s="55"/>
+      <c r="S334" s="55"/>
+      <c r="T334" s="55"/>
+      <c r="U334" s="55"/>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A335" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="B335" s="55"/>
+      <c r="C335" s="55"/>
+      <c r="D335" s="55"/>
+      <c r="E335" s="55"/>
+      <c r="F335" s="55"/>
+      <c r="G335" s="55"/>
+      <c r="H335" s="55"/>
+      <c r="I335" s="55"/>
+      <c r="J335" s="55"/>
+      <c r="K335" s="55"/>
+      <c r="L335" s="55"/>
+      <c r="M335" s="55"/>
+      <c r="N335" s="55"/>
+      <c r="O335" s="55"/>
+      <c r="P335" s="55"/>
+      <c r="Q335" s="55"/>
+      <c r="R335" s="55"/>
+      <c r="S335" s="55"/>
+      <c r="T335" s="55"/>
+      <c r="U335" s="55"/>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A336" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B336" s="55"/>
+      <c r="C336" s="55"/>
+      <c r="D336" s="55"/>
+      <c r="E336" s="55"/>
+      <c r="F336" s="55"/>
+      <c r="G336" s="55"/>
+      <c r="H336" s="55"/>
+      <c r="I336" s="55"/>
+      <c r="J336" s="55"/>
+      <c r="K336" s="55"/>
+      <c r="L336" s="55"/>
+      <c r="M336" s="55"/>
+      <c r="N336" s="55"/>
+      <c r="O336" s="55"/>
+      <c r="P336" s="55"/>
+      <c r="Q336" s="55"/>
+      <c r="R336" s="55"/>
+      <c r="S336" s="55"/>
+      <c r="T336" s="55"/>
+      <c r="U336" s="55"/>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A337" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B337" s="55"/>
+      <c r="C337" s="55"/>
+      <c r="D337" s="55"/>
+      <c r="E337" s="55"/>
+      <c r="F337" s="55"/>
+      <c r="G337" s="55"/>
+      <c r="H337" s="55"/>
+      <c r="I337" s="55"/>
+      <c r="J337" s="55"/>
+      <c r="K337" s="55"/>
+      <c r="L337" s="55"/>
+      <c r="M337" s="55"/>
+      <c r="N337" s="55"/>
+      <c r="O337" s="55"/>
+      <c r="P337" s="55"/>
+      <c r="Q337" s="55"/>
+      <c r="R337" s="55"/>
+      <c r="S337" s="55"/>
+      <c r="T337" s="55"/>
+      <c r="U337" s="55"/>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A338" s="55"/>
+      <c r="B338" s="55"/>
+      <c r="C338" s="55"/>
+      <c r="D338" s="55"/>
+      <c r="E338" s="55"/>
+      <c r="F338" s="55"/>
+      <c r="G338" s="55"/>
+      <c r="H338" s="55"/>
+      <c r="I338" s="55"/>
+      <c r="J338" s="55"/>
+      <c r="K338" s="55"/>
+      <c r="L338" s="55"/>
+      <c r="M338" s="55"/>
+      <c r="N338" s="55"/>
+      <c r="O338" s="55"/>
+      <c r="P338" s="55"/>
+      <c r="Q338" s="55"/>
+      <c r="R338" s="55"/>
+      <c r="S338" s="55"/>
+      <c r="T338" s="55"/>
+      <c r="U338" s="55"/>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A339" s="55"/>
+      <c r="B339" s="55"/>
+      <c r="C339" s="55"/>
+      <c r="D339" s="55"/>
+      <c r="E339" s="55"/>
+      <c r="F339" s="55"/>
+      <c r="G339" s="55"/>
+      <c r="H339" s="55"/>
+      <c r="I339" s="55"/>
+      <c r="J339" s="55"/>
+      <c r="K339" s="55"/>
+      <c r="L339" s="55"/>
+      <c r="M339" s="55"/>
+      <c r="N339" s="55"/>
+      <c r="O339" s="55"/>
+      <c r="P339" s="55"/>
+      <c r="Q339" s="55"/>
+      <c r="R339" s="55"/>
+      <c r="S339" s="55"/>
+      <c r="T339" s="55"/>
+      <c r="U339" s="55"/>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A340" s="55"/>
+      <c r="B340" s="55"/>
+      <c r="C340" s="55"/>
+      <c r="D340" s="55"/>
+      <c r="E340" s="55"/>
+      <c r="F340" s="55"/>
+      <c r="G340" s="55"/>
+      <c r="H340" s="55"/>
+      <c r="I340" s="55"/>
+      <c r="J340" s="55"/>
+      <c r="K340" s="55"/>
+      <c r="L340" s="55"/>
+      <c r="M340" s="55"/>
+      <c r="N340" s="55"/>
+      <c r="O340" s="55"/>
+      <c r="P340" s="55"/>
+      <c r="Q340" s="55"/>
+      <c r="R340" s="55"/>
+      <c r="S340" s="55"/>
+      <c r="T340" s="55"/>
+      <c r="U340" s="55"/>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A341" s="55"/>
+      <c r="B341" s="55"/>
+      <c r="C341" s="55"/>
+      <c r="D341" s="55"/>
+      <c r="E341" s="55"/>
+      <c r="F341" s="55"/>
+      <c r="G341" s="55"/>
+      <c r="H341" s="55"/>
+      <c r="I341" s="55"/>
+      <c r="J341" s="55"/>
+      <c r="K341" s="55"/>
+      <c r="L341" s="55"/>
+      <c r="M341" s="55"/>
+      <c r="N341" s="55"/>
+      <c r="O341" s="55"/>
+      <c r="P341" s="55"/>
+      <c r="Q341" s="55"/>
+      <c r="R341" s="55"/>
+      <c r="S341" s="55"/>
+      <c r="T341" s="55"/>
+      <c r="U341" s="55"/>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A342" s="55"/>
+      <c r="B342" s="55"/>
+      <c r="C342" s="55"/>
+      <c r="D342" s="55"/>
+      <c r="E342" s="55"/>
+      <c r="F342" s="55"/>
+      <c r="G342" s="55"/>
+      <c r="H342" s="55"/>
+      <c r="I342" s="55"/>
+      <c r="J342" s="55"/>
+      <c r="K342" s="55"/>
+      <c r="L342" s="55"/>
+      <c r="M342" s="55"/>
+      <c r="N342" s="55"/>
+      <c r="O342" s="55"/>
+      <c r="P342" s="55"/>
+      <c r="Q342" s="55"/>
+      <c r="R342" s="55"/>
+      <c r="S342" s="55"/>
+      <c r="T342" s="55"/>
+      <c r="U342" s="55"/>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A343" s="55"/>
+      <c r="B343" s="55"/>
+      <c r="C343" s="55"/>
+      <c r="D343" s="55"/>
+      <c r="E343" s="55"/>
+      <c r="F343" s="55"/>
+      <c r="G343" s="55"/>
+      <c r="H343" s="55"/>
+      <c r="I343" s="55"/>
+      <c r="J343" s="55"/>
+      <c r="K343" s="55"/>
+      <c r="L343" s="55"/>
+      <c r="M343" s="55"/>
+      <c r="N343" s="55"/>
+      <c r="O343" s="55"/>
+      <c r="P343" s="55"/>
+      <c r="Q343" s="55"/>
+      <c r="R343" s="55"/>
+      <c r="S343" s="55"/>
+      <c r="T343" s="55"/>
+      <c r="U343" s="55"/>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A344" s="55"/>
+      <c r="B344" s="55"/>
+      <c r="C344" s="55"/>
+      <c r="D344" s="55"/>
+      <c r="E344" s="55"/>
+      <c r="F344" s="55"/>
+      <c r="G344" s="55"/>
+      <c r="H344" s="55"/>
+      <c r="I344" s="55"/>
+      <c r="J344" s="55"/>
+      <c r="K344" s="55"/>
+      <c r="L344" s="55"/>
+      <c r="M344" s="55"/>
+      <c r="N344" s="55"/>
+      <c r="O344" s="55"/>
+      <c r="P344" s="55"/>
+      <c r="Q344" s="55"/>
+      <c r="R344" s="55"/>
+      <c r="S344" s="55"/>
+      <c r="T344" s="55"/>
+      <c r="U344" s="55"/>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A345" s="55"/>
+      <c r="B345" s="55"/>
+      <c r="C345" s="55"/>
+      <c r="D345" s="55"/>
+      <c r="E345" s="55"/>
+      <c r="F345" s="55"/>
+      <c r="G345" s="55"/>
+      <c r="H345" s="55"/>
+      <c r="I345" s="55"/>
+      <c r="J345" s="55"/>
+      <c r="K345" s="55"/>
+      <c r="L345" s="55"/>
+      <c r="M345" s="55"/>
+      <c r="N345" s="55"/>
+      <c r="O345" s="55"/>
+      <c r="P345" s="55"/>
+      <c r="Q345" s="55"/>
+      <c r="R345" s="55"/>
+      <c r="S345" s="55"/>
+      <c r="T345" s="55"/>
+      <c r="U345" s="55"/>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A346" s="55"/>
+      <c r="B346" s="55"/>
+      <c r="C346" s="55"/>
+      <c r="D346" s="55"/>
+      <c r="E346" s="55"/>
+      <c r="F346" s="55"/>
+      <c r="G346" s="55"/>
+      <c r="H346" s="55"/>
+      <c r="I346" s="55"/>
+      <c r="J346" s="55"/>
+      <c r="K346" s="55"/>
+      <c r="L346" s="55"/>
+      <c r="M346" s="55"/>
+      <c r="N346" s="55"/>
+      <c r="O346" s="55"/>
+      <c r="P346" s="55"/>
+      <c r="Q346" s="55"/>
+      <c r="R346" s="55"/>
+      <c r="S346" s="55"/>
+      <c r="T346" s="55"/>
+      <c r="U346" s="55"/>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A347" s="55"/>
+      <c r="B347" s="55"/>
+      <c r="C347" s="55"/>
+      <c r="D347" s="55"/>
+      <c r="E347" s="55"/>
+      <c r="F347" s="55"/>
+      <c r="G347" s="55"/>
+      <c r="H347" s="55"/>
+      <c r="I347" s="55"/>
+      <c r="J347" s="55"/>
+      <c r="K347" s="55"/>
+      <c r="L347" s="55"/>
+      <c r="M347" s="55"/>
+      <c r="N347" s="55"/>
+      <c r="O347" s="55"/>
+      <c r="P347" s="55"/>
+      <c r="Q347" s="55"/>
+      <c r="R347" s="55"/>
+      <c r="S347" s="55"/>
+      <c r="T347" s="55"/>
+      <c r="U347" s="55"/>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A348" s="55"/>
+      <c r="B348" s="55"/>
+      <c r="C348" s="55"/>
+      <c r="D348" s="55"/>
+      <c r="E348" s="55"/>
+      <c r="F348" s="55"/>
+      <c r="G348" s="55"/>
+      <c r="H348" s="55"/>
+      <c r="I348" s="55"/>
+      <c r="J348" s="55"/>
+      <c r="K348" s="55"/>
+      <c r="L348" s="55"/>
+      <c r="M348" s="55"/>
+      <c r="N348" s="55"/>
+      <c r="O348" s="55"/>
+      <c r="P348" s="55"/>
+      <c r="Q348" s="55"/>
+      <c r="R348" s="55"/>
+      <c r="S348" s="55"/>
+      <c r="T348" s="55"/>
+      <c r="U348" s="55"/>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A349" s="55"/>
+      <c r="B349" s="55"/>
+      <c r="C349" s="55"/>
+      <c r="D349" s="55"/>
+      <c r="E349" s="55"/>
+      <c r="F349" s="55"/>
+      <c r="G349" s="55"/>
+      <c r="H349" s="55"/>
+      <c r="I349" s="55"/>
+      <c r="J349" s="55"/>
+      <c r="K349" s="55"/>
+      <c r="L349" s="55"/>
+      <c r="M349" s="55"/>
+      <c r="N349" s="55"/>
+      <c r="O349" s="55"/>
+      <c r="P349" s="55"/>
+      <c r="Q349" s="55"/>
+      <c r="R349" s="55"/>
+      <c r="S349" s="55"/>
+      <c r="T349" s="55"/>
+      <c r="U349" s="55"/>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A350" s="55"/>
+      <c r="B350" s="55"/>
+      <c r="C350" s="55"/>
+      <c r="D350" s="55"/>
+      <c r="E350" s="55"/>
+      <c r="F350" s="55"/>
+      <c r="G350" s="55"/>
+      <c r="H350" s="55"/>
+      <c r="I350" s="55"/>
+      <c r="J350" s="55"/>
+      <c r="K350" s="55"/>
+      <c r="L350" s="55"/>
+      <c r="M350" s="55"/>
+      <c r="N350" s="55"/>
+      <c r="O350" s="55"/>
+      <c r="P350" s="55"/>
+      <c r="Q350" s="55"/>
+      <c r="R350" s="55"/>
+      <c r="S350" s="55"/>
+      <c r="T350" s="55"/>
+      <c r="U350" s="55"/>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A351" s="55"/>
+      <c r="B351" s="55"/>
+      <c r="C351" s="55"/>
+      <c r="D351" s="55"/>
+      <c r="E351" s="55"/>
+      <c r="F351" s="55"/>
+      <c r="G351" s="55"/>
+      <c r="H351" s="55"/>
+      <c r="I351" s="55"/>
+      <c r="J351" s="55"/>
+      <c r="K351" s="55"/>
+      <c r="L351" s="55"/>
+      <c r="M351" s="55"/>
+      <c r="N351" s="55"/>
+      <c r="O351" s="55"/>
+      <c r="P351" s="55"/>
+      <c r="Q351" s="55"/>
+      <c r="R351" s="55"/>
+      <c r="S351" s="55"/>
+      <c r="T351" s="55"/>
+      <c r="U351" s="55"/>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A352" s="55"/>
+      <c r="B352" s="55"/>
+      <c r="C352" s="55"/>
+      <c r="D352" s="55"/>
+      <c r="E352" s="55"/>
+      <c r="F352" s="55"/>
+      <c r="G352" s="55"/>
+      <c r="H352" s="55"/>
+      <c r="I352" s="55"/>
+      <c r="J352" s="55"/>
+      <c r="K352" s="55"/>
+      <c r="L352" s="55"/>
+      <c r="M352" s="55"/>
+      <c r="N352" s="55"/>
+      <c r="O352" s="55"/>
+      <c r="P352" s="55"/>
+      <c r="Q352" s="55"/>
+      <c r="R352" s="55"/>
+      <c r="S352" s="55"/>
+      <c r="T352" s="55"/>
+      <c r="U352" s="55"/>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A353" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="B353" s="55"/>
+      <c r="C353" s="55"/>
+      <c r="D353" s="55"/>
+      <c r="E353" s="55"/>
+      <c r="F353" s="55"/>
+      <c r="G353" s="55"/>
+      <c r="H353" s="55"/>
+      <c r="I353" s="55"/>
+      <c r="J353" s="55"/>
+      <c r="K353" s="55"/>
+      <c r="L353" s="55"/>
+      <c r="M353" s="55"/>
+      <c r="N353" s="55"/>
+      <c r="O353" s="55"/>
+      <c r="P353" s="55"/>
+      <c r="Q353" s="55"/>
+      <c r="R353" s="55"/>
+      <c r="S353" s="55"/>
+      <c r="T353" s="55"/>
+      <c r="U353" s="55"/>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A354" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="B354" s="55"/>
+      <c r="C354" s="55"/>
+      <c r="D354" s="55"/>
+      <c r="E354" s="55"/>
+      <c r="F354" s="55"/>
+      <c r="G354" s="55"/>
+      <c r="H354" s="55"/>
+      <c r="I354" s="55"/>
+      <c r="J354" s="55"/>
+      <c r="K354" s="55"/>
+      <c r="L354" s="55"/>
+      <c r="M354" s="55"/>
+      <c r="N354" s="55"/>
+      <c r="O354" s="55"/>
+      <c r="P354" s="55"/>
+      <c r="Q354" s="55"/>
+      <c r="R354" s="55"/>
+      <c r="S354" s="55"/>
+      <c r="T354" s="55"/>
+      <c r="U354" s="55"/>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A355" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="B355" s="55"/>
+      <c r="C355" s="55"/>
+      <c r="D355" s="55"/>
+      <c r="E355" s="55"/>
+      <c r="F355" s="55"/>
+      <c r="G355" s="55"/>
+      <c r="H355" s="55"/>
+      <c r="I355" s="55"/>
+      <c r="J355" s="55"/>
+      <c r="K355" s="55"/>
+      <c r="L355" s="55"/>
+      <c r="M355" s="55"/>
+      <c r="N355" s="55"/>
+      <c r="O355" s="55"/>
+      <c r="P355" s="55"/>
+      <c r="Q355" s="55"/>
+      <c r="R355" s="55"/>
+      <c r="S355" s="55"/>
+      <c r="T355" s="55"/>
+      <c r="U355" s="55"/>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A356" s="54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A357" s="54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A358" s="54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A359" s="54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A360" s="54" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A361" s="54" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A362" s="54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A363" s="54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A364" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A365" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A366" s="54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A367" s="54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A368" s="54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="56"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="54" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="54" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="54" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="54" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="54" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="54" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="54" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="54" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="54" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="54" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="54" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="54" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="54" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="56"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="54" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="54" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="56"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="54" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="56"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="56"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="54" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="56"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="56"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="54" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="54" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="54" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="54" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="54" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="54" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="54" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="56"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="54" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="54" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="54" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="54" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="54" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="54" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="54" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="56"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="56"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="54" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="54" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="54" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="54" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="54" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="54" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="54" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="54" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="56"/>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="54" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -5066,6 +10317,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>